--- a/Data/CRCP Sediment Data Bulk Weight and Composition.xlsx
+++ b/Data/CRCP Sediment Data Bulk Weight and Composition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Mar_2014" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="75">
   <si>
     <t>Pod(P)/Tube(T)</t>
   </si>
@@ -263,7 +263,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -509,9 +509,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -540,9 +537,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -573,9 +567,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -594,7 +585,16 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1067,16 +1067,16 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="F7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -1171,22 +1171,22 @@
         <f>$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="65">
         <v>5.2091110140721781</v>
       </c>
-      <c r="N9" s="68">
+      <c r="N9" s="65">
         <v>75.044202786268755</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="65">
         <v>19.746686199659067</v>
       </c>
-      <c r="P9" s="68">
+      <c r="P9" s="65">
         <v>8.4247374562425641</v>
       </c>
-      <c r="Q9" s="68">
+      <c r="Q9" s="65">
         <v>49.796966161026575</v>
       </c>
-      <c r="R9" s="68">
+      <c r="R9" s="65">
         <v>41.778296382730858</v>
       </c>
     </row>
@@ -1229,22 +1229,22 @@
         <f t="shared" ref="L10:L17" si="1">$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="65">
         <v>10.404026151168784</v>
       </c>
-      <c r="N10" s="68">
+      <c r="N10" s="65">
         <v>70.691265697756677</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="65">
         <v>18.904708151074537</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="65">
         <v>14.580467675378273</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="65">
         <v>56.828060522695829</v>
       </c>
-      <c r="R10" s="68">
+      <c r="R10" s="65">
         <v>28.591471801925898</v>
       </c>
     </row>
@@ -1287,22 +1287,22 @@
         <f t="shared" si="1"/>
         <v>1.8241469247509915E-2</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="65">
         <v>10.573692551505561</v>
       </c>
-      <c r="N11" s="68">
+      <c r="N11" s="65">
         <v>75.258954041204362</v>
       </c>
-      <c r="O11" s="68">
+      <c r="O11" s="65">
         <v>14.167353407290078</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="65">
         <v>13.14553990610178</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="65">
         <v>69.27230046948273</v>
       </c>
-      <c r="R11" s="68">
+      <c r="R11" s="65">
         <v>17.582159624415489</v>
       </c>
     </row>
@@ -1345,22 +1345,22 @@
         <f t="shared" si="1"/>
         <v>1.8241469247509915E-2</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="65">
         <v>9.4117647058824172</v>
       </c>
-      <c r="N12" s="68">
+      <c r="N12" s="65">
         <v>44.13533856867673</v>
       </c>
-      <c r="O12" s="68">
+      <c r="O12" s="65">
         <v>46.452896725440851</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="65">
         <v>8.1888472352390309</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="65">
         <v>24.199859418931819</v>
       </c>
-      <c r="R12" s="68">
+      <c r="R12" s="65">
         <v>67.611293345829154</v>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
         <f t="shared" si="1"/>
         <v>1.8241469247509915E-2</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="65">
         <v>0</v>
       </c>
-      <c r="N13" s="68">
+      <c r="N13" s="65">
         <v>0</v>
       </c>
-      <c r="O13" s="68">
+      <c r="O13" s="65">
         <v>0</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="65">
         <v>0</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="65">
         <v>0</v>
       </c>
-      <c r="R13" s="68">
+      <c r="R13" s="65">
         <v>0</v>
       </c>
     </row>
@@ -1459,22 +1459,22 @@
         <f t="shared" si="1"/>
         <v>1.8241469247509915E-2</v>
       </c>
-      <c r="M14" s="68">
+      <c r="M14" s="65">
         <v>7.576866764275267</v>
       </c>
-      <c r="N14" s="68">
+      <c r="N14" s="65">
         <v>79.862676915568471</v>
       </c>
-      <c r="O14" s="68">
+      <c r="O14" s="65">
         <v>12.560456320156263</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="65">
         <v>9.306930693068642</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="65">
         <v>86.97920792079222</v>
       </c>
-      <c r="R14" s="68">
+      <c r="R14" s="65">
         <v>3.7138613861391381</v>
       </c>
     </row>
@@ -1482,13 +1482,25 @@
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I15">
         <v>-14.292730000000001</v>
       </c>
@@ -1503,22 +1515,22 @@
         <f t="shared" si="1"/>
         <v>1.8241469247509915E-2</v>
       </c>
-      <c r="M15" s="68" t="s">
+      <c r="M15" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="N15" s="68" t="s">
+      <c r="N15" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="O15" s="68" t="s">
+      <c r="O15" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="68" t="s">
+      <c r="P15" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="Q15" s="68" t="s">
+      <c r="Q15" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="R15" s="68" t="s">
+      <c r="R15" s="65" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1532,7 +1544,7 @@
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="11"/>
@@ -1559,22 +1571,22 @@
         <f t="shared" si="1"/>
         <v>1.8241469247509915E-2</v>
       </c>
-      <c r="M16" s="68">
+      <c r="M16" s="65">
         <v>0</v>
       </c>
-      <c r="N16" s="68">
+      <c r="N16" s="65">
         <v>0</v>
       </c>
-      <c r="O16" s="68">
+      <c r="O16" s="65">
         <v>0</v>
       </c>
-      <c r="P16" s="68">
+      <c r="P16" s="65">
         <v>0</v>
       </c>
-      <c r="Q16" s="68">
+      <c r="Q16" s="65">
         <v>0</v>
       </c>
-      <c r="R16" s="68">
+      <c r="R16" s="65">
         <v>0</v>
       </c>
     </row>
@@ -1615,22 +1627,22 @@
         <f t="shared" si="1"/>
         <v>1.8241469247509915E-2</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="65">
         <v>0</v>
       </c>
-      <c r="N17" s="68">
+      <c r="N17" s="65">
         <v>0</v>
       </c>
-      <c r="O17" s="68">
+      <c r="O17" s="65">
         <v>0</v>
       </c>
-      <c r="P17" s="68">
+      <c r="P17" s="65">
         <v>0</v>
       </c>
-      <c r="Q17" s="68">
+      <c r="Q17" s="65">
         <v>0</v>
       </c>
-      <c r="R17" s="68">
+      <c r="R17" s="65">
         <v>0</v>
       </c>
     </row>
@@ -1643,12 +1655,12 @@
       <c r="F18" s="8"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1689,22 +1701,22 @@
         <f>$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
-      <c r="M19" s="68">
+      <c r="M19" s="65">
         <v>7.6819371727748678</v>
       </c>
-      <c r="N19" s="68">
+      <c r="N19" s="65">
         <v>67.81179319371725</v>
       </c>
-      <c r="O19" s="68">
+      <c r="O19" s="65">
         <v>24.506269633507884</v>
       </c>
-      <c r="P19" s="68">
+      <c r="P19" s="65">
         <v>9.1149273447820232</v>
       </c>
-      <c r="Q19" s="68">
+      <c r="Q19" s="65">
         <v>50.977542932628801</v>
       </c>
-      <c r="R19" s="68">
+      <c r="R19" s="65">
         <v>39.907529722589175</v>
       </c>
     </row>
@@ -1747,22 +1759,22 @@
         <f t="shared" ref="L20:L27" si="4">$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
-      <c r="M20" s="68">
+      <c r="M20" s="65">
         <v>6.011890922376887</v>
       </c>
-      <c r="N20" s="68">
+      <c r="N20" s="65">
         <v>72.954860995781686</v>
       </c>
-      <c r="O20" s="68">
+      <c r="O20" s="65">
         <v>21.033248081841428</v>
       </c>
-      <c r="P20" s="68">
+      <c r="P20" s="65">
         <v>9.3633708134927911</v>
       </c>
-      <c r="Q20" s="68">
+      <c r="Q20" s="65">
         <v>51.54755712056334</v>
       </c>
-      <c r="R20" s="68">
+      <c r="R20" s="65">
         <v>39.089072065943867</v>
       </c>
     </row>
@@ -1805,22 +1817,22 @@
         <f t="shared" si="4"/>
         <v>2.0268299163899908E-3</v>
       </c>
-      <c r="M21" s="68">
+      <c r="M21" s="65">
         <v>6.8297355043100323</v>
       </c>
-      <c r="N21" s="68">
+      <c r="N21" s="65">
         <v>78.493086765392135</v>
       </c>
-      <c r="O21" s="68">
+      <c r="O21" s="65">
         <v>14.677177730297831</v>
       </c>
-      <c r="P21" s="68">
+      <c r="P21" s="65">
         <v>9.8565263035110462</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="65">
         <v>65.640149305960421</v>
       </c>
-      <c r="R21" s="68">
+      <c r="R21" s="65">
         <v>24.503324390528533</v>
       </c>
     </row>
@@ -1863,22 +1875,22 @@
         <f t="shared" si="4"/>
         <v>2.0268299163899908E-3</v>
       </c>
-      <c r="M22" s="68">
+      <c r="M22" s="65">
         <v>11.403250815377227</v>
       </c>
-      <c r="N22" s="68">
+      <c r="N22" s="65">
         <v>33.926201678874996</v>
       </c>
-      <c r="O22" s="68">
+      <c r="O22" s="65">
         <v>54.67054750574777</v>
       </c>
-      <c r="P22" s="68">
+      <c r="P22" s="65">
         <v>9.4887348353552881</v>
       </c>
-      <c r="Q22" s="68">
+      <c r="Q22" s="65">
         <v>28.129116117850852</v>
       </c>
-      <c r="R22" s="68">
+      <c r="R22" s="65">
         <v>62.382149046793856</v>
       </c>
     </row>
@@ -1921,22 +1933,22 @@
         <f t="shared" si="4"/>
         <v>2.0268299163899908E-3</v>
       </c>
-      <c r="M23" s="68">
+      <c r="M23" s="65">
         <v>6.3496816176617594</v>
       </c>
-      <c r="N23" s="68">
+      <c r="N23" s="65">
         <v>87.638122043236152</v>
       </c>
-      <c r="O23" s="68">
+      <c r="O23" s="65">
         <v>6.0121963391020889</v>
       </c>
-      <c r="P23" s="68">
+      <c r="P23" s="65">
         <v>8.8688410825815875</v>
       </c>
-      <c r="Q23" s="68">
+      <c r="Q23" s="65">
         <v>80.403053435114103</v>
       </c>
-      <c r="R23" s="68">
+      <c r="R23" s="65">
         <v>10.72810548230431</v>
       </c>
     </row>
@@ -1979,22 +1991,22 @@
         <f t="shared" si="4"/>
         <v>2.0268299163899908E-3</v>
       </c>
-      <c r="M24" s="68">
+      <c r="M24" s="65">
         <v>7.4483508517579065</v>
       </c>
-      <c r="N24" s="68">
+      <c r="N24" s="65">
         <v>77.63639776316468</v>
       </c>
-      <c r="O24" s="68">
+      <c r="O24" s="65">
         <v>14.915251385077413</v>
       </c>
-      <c r="P24" s="68">
+      <c r="P24" s="65">
         <v>9.5593497597381685</v>
       </c>
-      <c r="Q24" s="68">
+      <c r="Q24" s="65">
         <v>73.15243840098185</v>
       </c>
-      <c r="R24" s="68">
+      <c r="R24" s="65">
         <v>17.288211839279981</v>
       </c>
     </row>
@@ -2037,22 +2049,22 @@
         <f t="shared" si="4"/>
         <v>2.0268299163899908E-3</v>
       </c>
-      <c r="M25" s="68">
+      <c r="M25" s="65">
         <v>5.1305754564363131</v>
       </c>
-      <c r="N25" s="68">
+      <c r="N25" s="65">
         <v>90.121937832216361</v>
       </c>
-      <c r="O25" s="68">
+      <c r="O25" s="65">
         <v>4.7474867113473262</v>
       </c>
-      <c r="P25" s="68">
+      <c r="P25" s="65">
         <v>7.9386110191013675</v>
       </c>
-      <c r="Q25" s="68">
+      <c r="Q25" s="65">
         <v>83.962680799381346</v>
       </c>
-      <c r="R25" s="68">
+      <c r="R25" s="65">
         <v>8.0987081815172868</v>
       </c>
     </row>
@@ -2095,22 +2107,22 @@
         <f t="shared" si="4"/>
         <v>2.0268299163899908E-3</v>
       </c>
-      <c r="M26" s="68">
+      <c r="M26" s="65">
         <v>4.6182881947721039</v>
       </c>
-      <c r="N26" s="68">
+      <c r="N26" s="65">
         <v>91.164159667830532</v>
       </c>
-      <c r="O26" s="68">
+      <c r="O26" s="65">
         <v>4.2175521373973641</v>
       </c>
-      <c r="P26" s="68">
+      <c r="P26" s="65">
         <v>7.9017460787214988</v>
       </c>
-      <c r="Q26" s="68">
+      <c r="Q26" s="65">
         <v>83.638650488310532</v>
       </c>
-      <c r="R26" s="68">
+      <c r="R26" s="65">
         <v>8.4596034329679703</v>
       </c>
     </row>
@@ -2153,22 +2165,22 @@
         <f t="shared" si="4"/>
         <v>2.0268299163899908E-3</v>
       </c>
-      <c r="M27" s="68">
+      <c r="M27" s="65">
         <v>10.351893095768457</v>
       </c>
-      <c r="N27" s="68">
+      <c r="N27" s="65">
         <v>80.58752783964367</v>
       </c>
-      <c r="O27" s="68">
+      <c r="O27" s="65">
         <v>9.0605790645878734</v>
       </c>
-      <c r="P27" s="68">
+      <c r="P27" s="65">
         <v>8.079748163693413</v>
       </c>
-      <c r="Q27" s="68">
+      <c r="Q27" s="65">
         <v>79.362300868072609</v>
       </c>
-      <c r="R27" s="68">
+      <c r="R27" s="65">
         <v>12.557950968233978</v>
       </c>
     </row>
@@ -2258,44 +2270,44 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="F7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>54</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -3101,44 +3113,44 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="F7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>54</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -3872,7 +3884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -3937,38 +3949,38 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="F7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="19" t="s">
@@ -4793,38 +4805,38 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="F7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="19" t="s">
@@ -5594,96 +5606,96 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="35" customWidth="1"/>
-    <col min="2" max="4" width="10.625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="35" customWidth="1"/>
-    <col min="6" max="8" width="10" style="35" customWidth="1"/>
-    <col min="9" max="10" width="11" style="35"/>
-    <col min="11" max="11" width="8.5" style="35" customWidth="1"/>
-    <col min="12" max="12" width="8.375" style="35" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="35"/>
+    <col min="1" max="1" width="15.5" style="34" customWidth="1"/>
+    <col min="2" max="4" width="10.625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="4.25" style="34" customWidth="1"/>
+    <col min="6" max="8" width="10" style="34" customWidth="1"/>
+    <col min="9" max="10" width="11" style="34"/>
+    <col min="11" max="11" width="8.5" style="34" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="34" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="35">
         <v>41816</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="34">
         <f>B3-B2</f>
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="35">
         <v>41865</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>41888</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="F7" s="38" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="F7" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-    </row>
-    <row r="8" spans="1:12" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+    </row>
+    <row r="8" spans="1:12" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="37" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="19" t="s">
@@ -5692,910 +5704,910 @@
       <c r="J8" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="41" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="42">
         <v>70.497399999999999</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="42">
         <v>83.394000000000005</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="43">
         <f>C9-B9</f>
         <v>12.896600000000007</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47">
+      <c r="E9" s="44"/>
+      <c r="F9" s="45">
         <v>1.7928999999999999</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="42">
         <v>2.2578999999999998</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="42">
         <f>G9-F9</f>
         <v>0.46499999999999986</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="34">
         <v>-14.290179999999999</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="34">
         <v>-170.6814</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <f t="shared" ref="K9:K17" si="0">$B$3-$B$2</f>
         <v>49</v>
       </c>
-      <c r="L9" s="48">
+      <c r="L9" s="46">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="44" t="s">
+      <c r="E10" s="44"/>
+      <c r="F10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="34">
         <v>-14.28941</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="34">
         <v>-170.67959999999999</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="34">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="46">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="42">
         <v>68.365799999999993</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="42">
         <v>70.952600000000004</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="43">
         <f t="shared" ref="D11:D17" si="1">C11-B11</f>
         <v>2.5868000000000109</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47">
+      <c r="E11" s="44"/>
+      <c r="F11" s="45">
         <v>1.7181</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="42">
         <v>2.2193999999999998</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="42">
         <f t="shared" ref="H11:H15" si="2">G11-F11</f>
         <v>0.50129999999999986</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="34">
         <v>-14.28833</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="34">
         <v>-170.67789999999999</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="34">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="46">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="42">
         <v>69.883799999999994</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="42">
         <v>78.872900000000001</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="43">
         <f t="shared" si="1"/>
         <v>8.9891000000000076</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47">
+      <c r="E12" s="44"/>
+      <c r="F12" s="45">
         <v>1.7484</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="42">
         <v>3.4155000000000002</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="42">
         <f t="shared" si="2"/>
         <v>1.6671000000000002</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="34">
         <v>-14.29177</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="34">
         <v>-170.68219999999999</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="34">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="46">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="42">
         <v>68.125699999999995</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="42">
         <v>68.449600000000004</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="43">
         <f t="shared" si="1"/>
         <v>0.32390000000000896</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="47">
+      <c r="E13" s="47"/>
+      <c r="F13" s="45">
         <v>1.7084999999999999</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="42">
         <v>1.8494999999999999</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="42">
         <f t="shared" si="2"/>
         <v>0.14100000000000001</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="34">
         <v>-14.29142</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="34">
         <v>-170.67930000000001</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="34">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="46">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="42">
         <v>67.0227</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="42">
         <v>69.643500000000003</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="43">
         <f t="shared" si="1"/>
         <v>2.6208000000000027</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47">
+      <c r="E14" s="44"/>
+      <c r="F14" s="45">
         <v>1.6861999999999999</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="42">
         <v>1.9287000000000001</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="42">
         <f t="shared" si="2"/>
         <v>0.24250000000000016</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="34">
         <v>-14.290330000000001</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="34">
         <v>-170.67670000000001</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="34">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="46">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="42">
         <v>69.337100000000007</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="42">
         <v>70.476799999999997</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="43">
         <f t="shared" si="1"/>
         <v>1.1396999999999906</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="47">
+      <c r="E15" s="47"/>
+      <c r="F15" s="45">
         <v>1.7007000000000001</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="42">
         <v>1.8554999999999999</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="42">
         <f t="shared" si="2"/>
         <v>0.15479999999999983</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="34">
         <v>-14.292730000000001</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="34">
         <v>-170.67939999999999</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="34">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="46">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="42">
         <v>70.260000000000005</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="42">
         <v>70.279899999999998</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="43">
         <f t="shared" si="1"/>
         <v>1.9899999999992701E-2</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="47">
+      <c r="E16" s="47"/>
+      <c r="F16" s="45">
         <v>1.7060999999999999</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="34">
         <v>-14.293839999999999</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="34">
         <v>-170.6773</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="34">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="46">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="42">
         <v>67.492500000000007</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="42">
         <v>67.578000000000003</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="43">
         <f t="shared" si="1"/>
         <v>8.5499999999996135E-2</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="47">
+      <c r="E17" s="47"/>
+      <c r="F17" s="45">
         <v>1.7403</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="34">
         <v>-14.293369999999999</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="34">
         <v>-170.6754</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="34">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="46">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="42">
         <v>70.354900000000001</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="42">
         <v>85.815200000000004</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="43">
         <f t="shared" ref="D19:D26" si="3">C19-B19</f>
         <v>15.460300000000004</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47">
+      <c r="E19" s="44"/>
+      <c r="F19" s="45">
         <v>1.7838000000000001</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="42">
         <v>3.2576999999999998</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="42">
         <f t="shared" ref="H19:H26" si="4">G19-F19</f>
         <v>1.4738999999999998</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="34">
         <v>-14.290179999999999</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="34">
         <v>-170.6814</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="34">
         <f t="shared" ref="K19:K21" si="5">$B$3-$B$2</f>
         <v>49</v>
       </c>
-      <c r="L19" s="48">
+      <c r="L19" s="46">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="42">
         <v>66.369600000000005</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="42">
         <v>66.436099999999996</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="43">
         <f t="shared" si="3"/>
         <v>6.6499999999990678E-2</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47">
+      <c r="E20" s="44"/>
+      <c r="F20" s="45">
         <v>1.7941</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="42">
         <v>1.7761</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="42">
         <f t="shared" si="4"/>
         <v>-1.8000000000000016E-2</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <v>-14.28941</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <v>-170.67959999999999</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="46">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="42">
         <v>68.179500000000004</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="42">
         <v>89.043999999999997</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="43">
         <f t="shared" si="3"/>
         <v>20.864499999999992</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47">
+      <c r="E21" s="44"/>
+      <c r="F21" s="45">
         <v>1.732</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="42">
         <v>3.8959999999999999</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="42">
         <f t="shared" si="4"/>
         <v>2.1639999999999997</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="34">
         <v>-14.28833</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="34">
         <v>-170.67789999999999</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="34">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="L21" s="48">
+      <c r="L21" s="46">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="42">
         <v>66.432199999999995</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="42">
         <v>85.448300000000003</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="43">
         <f t="shared" si="3"/>
         <v>19.016100000000009</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47">
+      <c r="E22" s="44"/>
+      <c r="F22" s="45">
         <v>1.8023</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="42">
         <v>2.8328000000000002</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="42">
         <f t="shared" si="4"/>
         <v>1.0305000000000002</v>
       </c>
-      <c r="L22" s="48"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="42">
         <v>69.380899999999997</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="42">
         <v>73.793099999999995</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="43">
         <f t="shared" si="3"/>
         <v>4.4121999999999986</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47">
+      <c r="E23" s="44"/>
+      <c r="F23" s="45">
         <v>69.380899999999997</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="42">
         <v>73.793099999999995</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="42">
         <f t="shared" si="4"/>
         <v>4.4121999999999986</v>
       </c>
-      <c r="L23" s="48"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="42">
         <v>70.394800000000004</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="42">
         <v>80.709999999999994</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="43">
         <f t="shared" si="3"/>
         <v>10.31519999999999</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47">
+      <c r="E24" s="44"/>
+      <c r="F24" s="45">
         <v>1.6792</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="42">
         <v>3.6214</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="42">
         <f t="shared" si="4"/>
         <v>1.9421999999999999</v>
       </c>
-      <c r="L24" s="48"/>
+      <c r="L24" s="46"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="42">
         <v>67.090900000000005</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="42">
         <v>70.531700000000001</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="43">
         <f t="shared" si="3"/>
         <v>3.4407999999999959</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47">
+      <c r="E25" s="44"/>
+      <c r="F25" s="45">
         <v>1.7887</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="42">
         <v>3.9891999999999999</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="42">
         <f t="shared" si="4"/>
         <v>2.2004999999999999</v>
       </c>
-      <c r="L25" s="48"/>
+      <c r="L25" s="46"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="42">
         <v>67.510959999999997</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="42">
         <v>70.075199999999995</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="43">
         <f t="shared" si="3"/>
         <v>2.5642399999999981</v>
       </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47">
+      <c r="E26" s="44"/>
+      <c r="F26" s="45">
         <v>1.7210000000000001</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="42">
         <v>4.9748999999999999</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="42">
         <f t="shared" si="4"/>
         <v>3.2538999999999998</v>
       </c>
-      <c r="L26" s="48"/>
+      <c r="L26" s="46"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43">
         <f>SUM(D22:D26)</f>
         <v>39.748539999999991</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44">
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42">
         <f>SUM(H22:H26)</f>
         <v>12.839299999999998</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="34">
         <v>-14.29177</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="34">
         <v>-170.68219999999999</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="34">
         <f t="shared" ref="K27:K32" si="6">$B$3-$B$2</f>
         <v>49</v>
       </c>
-      <c r="L27" s="48">
+      <c r="L27" s="46">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="42">
         <v>70.367900000000006</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="42">
         <v>75.531599999999997</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="43">
         <f>C28-B28</f>
         <v>5.1636999999999915</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47">
+      <c r="E28" s="44"/>
+      <c r="F28" s="45">
         <v>1.7428999999999999</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="42">
         <v>3.2896000000000001</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="42">
         <f>G28-F28</f>
         <v>1.5467000000000002</v>
       </c>
-      <c r="I28" s="35">
+      <c r="I28" s="34">
         <v>-14.29142</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="34">
         <v>-170.67930000000001</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K28" s="34">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="L28" s="48">
+      <c r="L28" s="46">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="42">
         <v>68.117999999999995</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="42">
         <v>84.532200000000003</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="43">
         <f>C29-B29</f>
         <v>16.414200000000008</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47">
+      <c r="E29" s="44"/>
+      <c r="F29" s="45">
         <v>1.7764</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="42">
         <v>3.5771999999999999</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="42">
         <f>G29-F29</f>
         <v>1.8008</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I29" s="34">
         <v>-14.290330000000001</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="34">
         <v>-170.67670000000001</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29" s="34">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="L29" s="48">
+      <c r="L29" s="46">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="42">
         <v>69.351600000000005</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="42">
         <v>85.095200000000006</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="43">
         <f>C30-B30</f>
         <v>15.743600000000001</v>
       </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47">
+      <c r="E30" s="44"/>
+      <c r="F30" s="45">
         <v>1.7115</v>
       </c>
-      <c r="G30" s="44">
+      <c r="G30" s="42">
         <v>3.2818000000000001</v>
       </c>
-      <c r="H30" s="44">
+      <c r="H30" s="42">
         <f>G30-F30</f>
         <v>1.5703</v>
       </c>
-      <c r="I30" s="35">
+      <c r="I30" s="34">
         <v>-14.292730000000001</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="34">
         <v>-170.67939999999999</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30" s="34">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="L30" s="48">
+      <c r="L30" s="46">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="44">
+      <c r="B31" s="42">
         <v>67.060699999999997</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="42">
         <v>78.050899999999999</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="43">
         <f>C31-B31</f>
         <v>10.990200000000002</v>
       </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47">
+      <c r="E31" s="44"/>
+      <c r="F31" s="45">
         <v>1.6805000000000001</v>
       </c>
-      <c r="G31" s="44">
+      <c r="G31" s="42">
         <v>2.72</v>
       </c>
-      <c r="H31" s="44">
+      <c r="H31" s="42">
         <f>G31-F31</f>
         <v>1.0395000000000001</v>
       </c>
-      <c r="I31" s="35">
+      <c r="I31" s="34">
         <v>-14.293839999999999</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="34">
         <v>-170.6773</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="34">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="L31" s="48">
+      <c r="L31" s="46">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="42">
         <v>67.47</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="42">
         <v>67.512900000000002</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="43">
         <f>C32-B32</f>
         <v>4.2900000000003047E-2</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47">
+      <c r="E32" s="44"/>
+      <c r="F32" s="45">
         <v>1.73</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="42">
         <v>1.7715000000000001</v>
       </c>
-      <c r="H32" s="44">
+      <c r="H32" s="42">
         <f>G32-F32</f>
         <v>4.1500000000000092E-2</v>
       </c>
-      <c r="I32" s="35">
+      <c r="I32" s="34">
         <v>-14.293369999999999</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="34">
         <v>-170.6754</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32" s="34">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="L32" s="48">
+      <c r="L32" s="46">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6622,1064 +6634,1064 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="56" customWidth="1"/>
-    <col min="2" max="4" width="9.875" style="56" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="56" customWidth="1"/>
-    <col min="6" max="8" width="9.375" style="56" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="56"/>
+    <col min="1" max="1" width="16.625" style="54" customWidth="1"/>
+    <col min="2" max="4" width="9.875" style="54" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="54" customWidth="1"/>
+    <col min="6" max="8" width="9.375" style="54" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="55">
         <v>41865</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="54">
         <f>B3-B2</f>
         <v>53</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="55">
         <v>41926</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="54">
         <v>1220</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="55">
         <v>41918</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="55">
         <v>41926</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="54">
         <v>1635</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="55">
         <v>41920</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="54" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="F7" s="59" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="F7" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:12" s="63" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+    </row>
+    <row r="8" spans="1:12" s="60" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="60" t="s">
+      <c r="E8" s="58"/>
+      <c r="F8" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="63" t="s">
+      <c r="K8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="63" t="s">
+      <c r="L8" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="64">
+      <c r="B9" s="61">
         <v>70.239999999999995</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="61">
         <v>96.644999999999996</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="61">
         <f>C9-B9</f>
         <v>26.405000000000001</v>
       </c>
-      <c r="E9" s="65" t="str">
+      <c r="E9" s="62" t="str">
         <f>A9</f>
         <v>P1A</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="61">
         <v>1.754</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="61">
         <v>4.7919999999999998</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H9" s="61">
         <f>G9-F9</f>
         <v>3.0379999999999998</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="54">
         <v>-14.290179999999999</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="54">
         <v>-170.6814</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="54">
         <f t="shared" ref="K9:K10" si="0">$B$3-$B$2</f>
         <v>53</v>
       </c>
-      <c r="L9" s="66">
+      <c r="L9" s="63">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="65" t="str">
+      <c r="E10" s="62" t="str">
         <f t="shared" ref="E10:E33" si="1">A10</f>
         <v>P1B</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="56">
+      <c r="I10" s="54">
         <v>-14.28941</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="54">
         <v>-170.67959999999999</v>
       </c>
-      <c r="K10" s="56">
+      <c r="K10" s="54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="L10" s="66">
+      <c r="L10" s="63">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="61">
         <v>68.073999999999998</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="61">
         <v>71.608999999999995</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="61">
         <f>C11-B11</f>
         <v>3.5349999999999966</v>
       </c>
-      <c r="E11" s="65" t="str">
+      <c r="E11" s="62" t="str">
         <f t="shared" si="1"/>
         <v>P1Ca</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="61">
         <v>1.754</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="61">
         <v>2.085</v>
       </c>
-      <c r="H11" s="64">
+      <c r="H11" s="61">
         <f>G11-F11</f>
         <v>0.33099999999999996</v>
       </c>
-      <c r="L11" s="66"/>
+      <c r="L11" s="63"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65" t="str">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62" t="str">
         <f t="shared" si="1"/>
         <v>P1Cb</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="61">
         <v>1.696</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="61">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="61">
         <f t="shared" ref="H12:H17" si="2">G12-F12</f>
         <v>0.60399999999999987</v>
       </c>
-      <c r="L12" s="66"/>
+      <c r="L12" s="63"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65" t="str">
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62" t="str">
         <f t="shared" si="1"/>
         <v>P1Cc</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="61">
         <v>1.7410000000000001</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="61">
         <v>1.792</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="61">
         <f t="shared" si="2"/>
         <v>5.0999999999999934E-2</v>
       </c>
-      <c r="L13" s="66"/>
+      <c r="L13" s="63"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="61">
         <f>B11</f>
         <v>68.073999999999998</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="61">
         <f>C11</f>
         <v>71.608999999999995</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="61">
         <f>D11</f>
         <v>3.5349999999999966</v>
       </c>
-      <c r="E14" s="65" t="str">
+      <c r="E14" s="62" t="str">
         <f t="shared" si="1"/>
         <v>P1C</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="61">
         <f>SUM(F11:F13)</f>
         <v>5.1910000000000007</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="61">
         <f>SUM(G11:G13)</f>
         <v>6.1769999999999996</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="61">
         <f>SUM(H11:H13)</f>
         <v>0.98599999999999977</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I14" s="54">
         <v>-14.28833</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="54">
         <v>-170.67789999999999</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K14" s="54">
         <f t="shared" ref="K14" si="3">$B$3-$B$2</f>
         <v>53</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L14" s="63">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="61">
         <v>69.646000000000001</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="61">
         <v>72.480999999999995</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="61">
         <f>C15-B15</f>
         <v>2.8349999999999937</v>
       </c>
-      <c r="E15" s="65" t="str">
+      <c r="E15" s="62" t="str">
         <f t="shared" si="1"/>
         <v>P2Aa</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="61">
         <v>1.746</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="61">
         <v>3.4780000000000002</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="61">
         <f t="shared" si="2"/>
         <v>1.7320000000000002</v>
       </c>
-      <c r="L15" s="66"/>
+      <c r="L15" s="63"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65" t="str">
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62" t="str">
         <f t="shared" si="1"/>
         <v>P2Ab</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="61">
         <v>1.74</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="61">
         <v>4.0919999999999996</v>
       </c>
-      <c r="H16" s="64">
+      <c r="H16" s="61">
         <f t="shared" si="2"/>
         <v>2.3519999999999994</v>
       </c>
-      <c r="L16" s="66"/>
+      <c r="L16" s="63"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65" t="str">
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62" t="str">
         <f t="shared" si="1"/>
         <v>P2Ac</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="61">
         <v>1.671</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="61">
         <v>2.8450000000000002</v>
       </c>
-      <c r="H17" s="64">
+      <c r="H17" s="61">
         <f t="shared" si="2"/>
         <v>1.1740000000000002</v>
       </c>
-      <c r="L17" s="66"/>
+      <c r="L17" s="63"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="64">
+      <c r="B18" s="61">
         <f>B15</f>
         <v>69.646000000000001</v>
       </c>
-      <c r="C18" s="64">
+      <c r="C18" s="61">
         <f>C15</f>
         <v>72.480999999999995</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="61">
         <f>D15</f>
         <v>2.8349999999999937</v>
       </c>
-      <c r="E18" s="65" t="str">
+      <c r="E18" s="62" t="str">
         <f t="shared" si="1"/>
         <v>P2A</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="61">
         <f>SUM(F15:F17)</f>
         <v>5.157</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="61">
         <f>SUM(G15:G17)</f>
         <v>10.415000000000001</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="61">
         <f>SUM(H15:H17)</f>
         <v>5.258</v>
       </c>
-      <c r="I18" s="56">
+      <c r="I18" s="54">
         <v>-14.29177</v>
       </c>
-      <c r="J18" s="56">
+      <c r="J18" s="54">
         <v>-170.68219999999999</v>
       </c>
-      <c r="K18" s="56">
+      <c r="K18" s="54">
         <f t="shared" ref="K18:K23" si="4">$B$3-$B$2</f>
         <v>53</v>
       </c>
-      <c r="L18" s="66">
+      <c r="L18" s="63">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="65" t="str">
+      <c r="E19" s="62" t="str">
         <f t="shared" si="1"/>
         <v>P2B</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="54">
         <v>-14.29142</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J19" s="54">
         <v>-170.67930000000001</v>
       </c>
-      <c r="K19" s="56">
+      <c r="K19" s="54">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="L19" s="66">
+      <c r="L19" s="63">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="61">
         <v>66.789000000000001</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="61">
         <v>67.222999999999999</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="61">
         <f>C20-B20</f>
         <v>0.4339999999999975</v>
       </c>
-      <c r="E20" s="65" t="str">
+      <c r="E20" s="62" t="str">
         <f t="shared" si="1"/>
         <v>P2C</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="61">
         <v>1.7490000000000001</v>
       </c>
-      <c r="G20" s="64">
+      <c r="G20" s="61">
         <v>1.97</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="61">
         <f>G20-F20</f>
         <v>0.22099999999999986</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="54">
         <v>-14.290330000000001</v>
       </c>
-      <c r="J20" s="56">
+      <c r="J20" s="54">
         <v>-170.67670000000001</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="54">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="L20" s="66">
+      <c r="L20" s="63">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="65" t="str">
+      <c r="E21" s="62" t="str">
         <f t="shared" si="1"/>
         <v>P3A</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="H21" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="56">
+      <c r="I21" s="54">
         <v>-14.292730000000001</v>
       </c>
-      <c r="J21" s="56">
+      <c r="J21" s="54">
         <v>-170.67939999999999</v>
       </c>
-      <c r="K21" s="56">
+      <c r="K21" s="54">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="L21" s="66">
+      <c r="L21" s="63">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="65" t="str">
+      <c r="E22" s="62" t="str">
         <f t="shared" si="1"/>
         <v>P3B</v>
       </c>
-      <c r="F22" s="64" t="s">
+      <c r="F22" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="54">
         <v>-14.293839999999999</v>
       </c>
-      <c r="J22" s="56">
+      <c r="J22" s="54">
         <v>-170.6773</v>
       </c>
-      <c r="K22" s="56">
+      <c r="K22" s="54">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="L22" s="66">
+      <c r="L22" s="63">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="64">
+      <c r="B23" s="61">
         <v>67.215999999999994</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="61">
         <v>67.221000000000004</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="61">
         <f>C23-B23</f>
         <v>5.0000000000096634E-3</v>
       </c>
-      <c r="E23" s="65" t="str">
+      <c r="E23" s="62" t="str">
         <f t="shared" si="1"/>
         <v>P3C</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="61">
         <v>1.746</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="61">
         <v>1.7250000000000001</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="61">
         <f>G23-F23</f>
         <v>-2.0999999999999908E-2</v>
       </c>
-      <c r="I23" s="56">
+      <c r="I23" s="54">
         <v>-14.293369999999999</v>
       </c>
-      <c r="J23" s="56">
+      <c r="J23" s="54">
         <v>-170.6754</v>
       </c>
-      <c r="K23" s="56">
+      <c r="K23" s="54">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="L23" s="66">
+      <c r="L23" s="63">
         <f>Mar_2014!$I$2</f>
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="64">
+      <c r="B25" s="61">
         <v>67.849999999999994</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="61">
         <v>72.977000000000004</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="61">
         <f t="shared" ref="D25:D33" si="5">C25-B25</f>
         <v>5.1270000000000095</v>
       </c>
-      <c r="E25" s="65" t="str">
+      <c r="E25" s="62" t="str">
         <f t="shared" si="1"/>
         <v>T1A</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="61">
         <v>1.7809999999999999</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="61">
         <v>7.6020000000000003</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="61">
         <f t="shared" ref="H25:H33" si="6">G25-F25</f>
         <v>5.8210000000000006</v>
       </c>
-      <c r="I25" s="56">
+      <c r="I25" s="54">
         <v>-14.290179999999999</v>
       </c>
-      <c r="J25" s="56">
+      <c r="J25" s="54">
         <v>-170.6814</v>
       </c>
-      <c r="K25" s="56">
+      <c r="K25" s="54">
         <f t="shared" ref="K25:K33" si="7">$B$3-$B$2</f>
         <v>53</v>
       </c>
-      <c r="L25" s="66">
+      <c r="L25" s="63">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="65" t="str">
+      <c r="E26" s="62" t="str">
         <f t="shared" si="1"/>
         <v>T1B</v>
       </c>
-      <c r="F26" s="64" t="s">
+      <c r="F26" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="64" t="s">
+      <c r="G26" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="56">
+      <c r="I26" s="54">
         <v>-14.28941</v>
       </c>
-      <c r="J26" s="56">
+      <c r="J26" s="54">
         <v>-170.67959999999999</v>
       </c>
-      <c r="K26" s="56">
+      <c r="K26" s="54">
         <f t="shared" si="7"/>
         <v>53</v>
       </c>
-      <c r="L26" s="66">
+      <c r="L26" s="63">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="64">
+      <c r="B27" s="61">
         <v>66.135000000000005</v>
       </c>
-      <c r="C27" s="64">
+      <c r="C27" s="61">
         <v>66.171000000000006</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="61">
         <f t="shared" si="5"/>
         <v>3.6000000000001364E-2</v>
       </c>
-      <c r="E27" s="65" t="str">
+      <c r="E27" s="62" t="str">
         <f t="shared" si="1"/>
         <v>T1C</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="61">
         <v>1.7290000000000001</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="61">
         <v>16.518000000000001</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="61">
         <f t="shared" si="6"/>
         <v>14.789000000000001</v>
       </c>
-      <c r="I27" s="56">
+      <c r="I27" s="54">
         <v>-14.28833</v>
       </c>
-      <c r="J27" s="56">
+      <c r="J27" s="54">
         <v>-170.67789999999999</v>
       </c>
-      <c r="K27" s="56">
+      <c r="K27" s="54">
         <f t="shared" si="7"/>
         <v>53</v>
       </c>
-      <c r="L27" s="66">
+      <c r="L27" s="63">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="64">
+      <c r="B28" s="61">
         <v>70.003</v>
       </c>
-      <c r="C28" s="64">
+      <c r="C28" s="61">
         <v>70.637</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="61">
         <f t="shared" si="5"/>
         <v>0.63400000000000034</v>
       </c>
-      <c r="E28" s="65" t="str">
+      <c r="E28" s="62" t="str">
         <f t="shared" si="1"/>
         <v>T2A</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="61">
         <v>1.7470000000000001</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="61">
         <v>11.294</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="61">
         <f t="shared" si="6"/>
         <v>9.5470000000000006</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="54">
         <v>-14.29177</v>
       </c>
-      <c r="J28" s="56">
+      <c r="J28" s="54">
         <v>-170.68219999999999</v>
       </c>
-      <c r="K28" s="56">
+      <c r="K28" s="54">
         <f t="shared" si="7"/>
         <v>53</v>
       </c>
-      <c r="L28" s="66">
+      <c r="L28" s="63">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="65" t="str">
+      <c r="E29" s="62" t="str">
         <f t="shared" si="1"/>
         <v>T2B</v>
       </c>
-      <c r="F29" s="64">
+      <c r="F29" s="61">
         <v>1.736</v>
       </c>
-      <c r="G29" s="64">
+      <c r="G29" s="61">
         <f>1.976</f>
         <v>1.976</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="61">
         <f t="shared" si="6"/>
         <v>0.24</v>
       </c>
-      <c r="I29" s="56">
+      <c r="I29" s="54">
         <v>-14.29142</v>
       </c>
-      <c r="J29" s="56">
+      <c r="J29" s="54">
         <v>-170.67930000000001</v>
       </c>
-      <c r="K29" s="56">
+      <c r="K29" s="54">
         <f t="shared" si="7"/>
         <v>53</v>
       </c>
-      <c r="L29" s="66">
+      <c r="L29" s="63">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="64">
+      <c r="B30" s="61">
         <v>69.093999999999994</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="61">
         <v>72.986999999999995</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="61">
         <f t="shared" si="5"/>
         <v>3.8930000000000007</v>
       </c>
-      <c r="E30" s="65" t="str">
+      <c r="E30" s="62" t="str">
         <f t="shared" si="1"/>
         <v>T2C</v>
       </c>
-      <c r="F30" s="64">
+      <c r="F30" s="61">
         <v>1.677</v>
       </c>
-      <c r="G30" s="64">
+      <c r="G30" s="61">
         <v>11.345000000000001</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="61">
         <f t="shared" si="6"/>
         <v>9.668000000000001</v>
       </c>
-      <c r="I30" s="56">
+      <c r="I30" s="54">
         <v>-14.290330000000001</v>
       </c>
-      <c r="J30" s="56">
+      <c r="J30" s="54">
         <v>-170.67670000000001</v>
       </c>
-      <c r="K30" s="56">
+      <c r="K30" s="54">
         <f t="shared" si="7"/>
         <v>53</v>
       </c>
-      <c r="L30" s="66">
+      <c r="L30" s="63">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="64" t="s">
+      <c r="A31" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="64">
+      <c r="B31" s="61">
         <v>112.001</v>
       </c>
-      <c r="C31" s="64">
+      <c r="C31" s="61">
         <v>114.126</v>
       </c>
-      <c r="D31" s="64">
+      <c r="D31" s="61">
         <f t="shared" si="5"/>
         <v>2.125</v>
       </c>
-      <c r="E31" s="65" t="str">
+      <c r="E31" s="62" t="str">
         <f t="shared" si="1"/>
         <v>T3A</v>
       </c>
-      <c r="F31" s="64">
+      <c r="F31" s="61">
         <v>1.6930000000000001</v>
       </c>
-      <c r="G31" s="64">
+      <c r="G31" s="61">
         <v>5.1719999999999997</v>
       </c>
-      <c r="H31" s="64">
+      <c r="H31" s="61">
         <f t="shared" si="6"/>
         <v>3.4789999999999996</v>
       </c>
-      <c r="I31" s="56">
+      <c r="I31" s="54">
         <v>-14.292730000000001</v>
       </c>
-      <c r="J31" s="56">
+      <c r="J31" s="54">
         <v>-170.67939999999999</v>
       </c>
-      <c r="K31" s="56">
+      <c r="K31" s="54">
         <f t="shared" si="7"/>
         <v>53</v>
       </c>
-      <c r="L31" s="66">
+      <c r="L31" s="63">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="64">
+      <c r="B32" s="61">
         <v>112.91800000000001</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="61">
         <v>118.40300000000001</v>
       </c>
-      <c r="D32" s="64">
+      <c r="D32" s="61">
         <f t="shared" si="5"/>
         <v>5.4849999999999994</v>
       </c>
-      <c r="E32" s="65" t="str">
+      <c r="E32" s="62" t="str">
         <f t="shared" si="1"/>
         <v>T3B</v>
       </c>
-      <c r="F32" s="64">
+      <c r="F32" s="61">
         <v>1.774</v>
       </c>
-      <c r="G32" s="64">
+      <c r="G32" s="61">
         <v>3.6930000000000001</v>
       </c>
-      <c r="H32" s="64">
+      <c r="H32" s="61">
         <f t="shared" si="6"/>
         <v>1.919</v>
       </c>
-      <c r="I32" s="56">
+      <c r="I32" s="54">
         <v>-14.293839999999999</v>
       </c>
-      <c r="J32" s="56">
+      <c r="J32" s="54">
         <v>-170.6773</v>
       </c>
-      <c r="K32" s="56">
+      <c r="K32" s="54">
         <f t="shared" si="7"/>
         <v>53</v>
       </c>
-      <c r="L32" s="66">
+      <c r="L32" s="63">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="64">
+      <c r="B33" s="61">
         <v>70.108000000000004</v>
       </c>
-      <c r="C33" s="64">
+      <c r="C33" s="61">
         <v>70.945999999999998</v>
       </c>
-      <c r="D33" s="64">
+      <c r="D33" s="61">
         <f t="shared" si="5"/>
         <v>0.83799999999999386</v>
       </c>
-      <c r="E33" s="65" t="str">
+      <c r="E33" s="62" t="str">
         <f t="shared" si="1"/>
         <v>T3C</v>
       </c>
-      <c r="F33" s="64">
+      <c r="F33" s="61">
         <v>1.7390000000000001</v>
       </c>
-      <c r="G33" s="64">
+      <c r="G33" s="61">
         <v>3.3420000000000001</v>
       </c>
-      <c r="H33" s="64">
+      <c r="H33" s="61">
         <f t="shared" si="6"/>
         <v>1.603</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I33" s="54">
         <v>-14.293369999999999</v>
       </c>
-      <c r="J33" s="56">
+      <c r="J33" s="54">
         <v>-170.6754</v>
       </c>
-      <c r="K33" s="56">
+      <c r="K33" s="54">
         <f t="shared" si="7"/>
         <v>53</v>
       </c>
-      <c r="L33" s="66">
+      <c r="L33" s="63">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
@@ -7780,44 +7792,44 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="F7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>54</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -8622,8 +8634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8690,44 +8702,44 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="F7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>54</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -8785,17 +8797,17 @@
         <v>32</v>
       </c>
       <c r="B10" s="1">
-        <v>109.636</v>
+        <v>112.90600000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>112.392</v>
+        <v>129.57</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D10:D16" si="2">C10-B10</f>
-        <v>2.7560000000000002</v>
+        <f>C10-B10</f>
+        <v>16.663999999999987</v>
       </c>
       <c r="E10" s="13" t="str">
-        <f t="shared" ref="E10:E27" si="3">A10</f>
+        <f t="shared" ref="E10:E27" si="2">A10</f>
         <v>P1B</v>
       </c>
       <c r="F10" s="1">
@@ -8834,11 +8846,11 @@
         <v>69.652000000000001</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" ref="D10:D16" si="3">C11-B11</f>
+        <v>1.5810000000000031</v>
+      </c>
+      <c r="E11" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>1.5810000000000031</v>
-      </c>
-      <c r="E11" s="13" t="str">
-        <f t="shared" si="3"/>
         <v>P1C</v>
       </c>
       <c r="F11" s="1">
@@ -8877,11 +8889,11 @@
         <v>71.203999999999994</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5579999999999927</v>
+      </c>
+      <c r="E12" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>1.5579999999999927</v>
-      </c>
-      <c r="E12" s="13" t="str">
-        <f t="shared" si="3"/>
         <v>P2A</v>
       </c>
       <c r="F12" s="1">
@@ -8914,17 +8926,17 @@
         <v>35</v>
       </c>
       <c r="B13" s="1">
-        <v>112.90600000000001</v>
+        <v>109.636</v>
       </c>
       <c r="C13" s="1">
-        <v>129.57</v>
+        <v>112.392</v>
       </c>
       <c r="D13" s="1">
+        <f>C13-B13</f>
+        <v>2.7560000000000002</v>
+      </c>
+      <c r="E13" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>16.663999999999987</v>
-      </c>
-      <c r="E13" s="13" t="str">
-        <f t="shared" si="3"/>
         <v>P2B</v>
       </c>
       <c r="F13" s="1">
@@ -8963,11 +8975,11 @@
         <v>68.27</v>
       </c>
       <c r="D14" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4849999999999994</v>
+      </c>
+      <c r="E14" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>1.4849999999999994</v>
-      </c>
-      <c r="E14" s="13" t="str">
-        <f t="shared" si="3"/>
         <v>P2C</v>
       </c>
       <c r="F14" s="1">
@@ -9006,11 +9018,11 @@
         <v>114.387</v>
       </c>
       <c r="D15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.23600000000000421</v>
+      </c>
+      <c r="E15" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>0.23600000000000421</v>
-      </c>
-      <c r="E15" s="13" t="str">
-        <f t="shared" si="3"/>
         <v>P3A</v>
       </c>
       <c r="F15" s="1">
@@ -9049,11 +9061,11 @@
         <v>67.245999999999995</v>
       </c>
       <c r="D16" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1999999999996476E-2</v>
+      </c>
+      <c r="E16" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>3.1999999999996476E-2</v>
-      </c>
-      <c r="E16" s="13" t="str">
-        <f t="shared" si="3"/>
         <v>P3B</v>
       </c>
       <c r="F16" s="1">
@@ -9095,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>P3C</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -9147,7 +9159,7 @@
         <v>2.0550000000000068</v>
       </c>
       <c r="E19" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>T1A</v>
       </c>
       <c r="F19" s="1">
@@ -9190,7 +9202,7 @@
         <v>2.8229999999999933</v>
       </c>
       <c r="E20" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>T1B</v>
       </c>
       <c r="F20" s="1">
@@ -9233,7 +9245,7 @@
         <v>0.98899999999999011</v>
       </c>
       <c r="E21" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>T1C</v>
       </c>
       <c r="F21" s="1">
@@ -9276,7 +9288,7 @@
         <v>1.3269999999999982</v>
       </c>
       <c r="E22" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>T2A</v>
       </c>
       <c r="F22" s="1">
@@ -9318,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>T2B</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -9360,7 +9372,7 @@
         <v>0.63400000000000034</v>
       </c>
       <c r="E24" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>T2C</v>
       </c>
       <c r="F24" s="1">
@@ -9403,7 +9415,7 @@
         <v>9.0000000000003411E-2</v>
       </c>
       <c r="E25" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>T3A</v>
       </c>
       <c r="F25" s="1">
@@ -9446,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>T3B</v>
       </c>
       <c r="F26" s="1">
@@ -9489,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>T3C</v>
       </c>
       <c r="F27" s="1">
@@ -9600,44 +9612,44 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="F7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="32" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>54</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -10407,7 +10419,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10430,14 +10442,14 @@
         <v>55</v>
       </c>
       <c r="B2" s="5">
-        <v>41644</v>
+        <v>42009</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
       </c>
       <c r="D2">
         <f>B3-B2</f>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -10476,44 +10488,44 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="F7" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="30" t="s">
         <v>54</v>
       </c>
       <c r="K8" s="20" t="s">
@@ -10557,7 +10569,7 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:K17" si="0">$B$3-$B$2</f>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L9" s="14">
         <f>Mar_2014!$I$2</f>
@@ -10598,7 +10610,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L10" s="14">
         <f>Mar_2014!$I$2</f>
@@ -10639,7 +10651,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L11" s="14">
         <f>Mar_2014!$I$2</f>
@@ -10680,7 +10692,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L12" s="14">
         <f>Mar_2014!$I$2</f>
@@ -10721,7 +10733,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L13" s="14">
         <f>Mar_2014!$I$2</f>
@@ -10762,7 +10774,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L14" s="14">
         <f>Mar_2014!$I$2</f>
@@ -10803,7 +10815,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L15" s="14">
         <f>Mar_2014!$I$2</f>
@@ -10844,7 +10856,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L16" s="14">
         <f>Mar_2014!$I$2</f>
@@ -10885,7 +10897,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L17" s="14">
         <f>Mar_2014!$I$2</f>
@@ -10936,7 +10948,7 @@
       </c>
       <c r="K19">
         <f t="shared" ref="K19:K27" si="2">$B$3-$B$2</f>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L19" s="14">
         <f>Mar_2014!$I$3</f>
@@ -10977,7 +10989,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="2"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L20" s="14">
         <f>Mar_2014!$I$3</f>
@@ -11018,7 +11030,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="2"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L21" s="14">
         <f>Mar_2014!$I$3</f>
@@ -11059,7 +11071,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L22" s="14">
         <f>Mar_2014!$I$3</f>
@@ -11100,7 +11112,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L23" s="14">
         <f>Mar_2014!$I$3</f>
@@ -11141,7 +11153,7 @@
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L24" s="14">
         <f>Mar_2014!$I$3</f>
@@ -11182,7 +11194,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="2"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L25" s="14">
         <f>Mar_2014!$I$3</f>
@@ -11223,7 +11235,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="2"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L26" s="14">
         <f>Mar_2014!$I$3</f>
@@ -11264,7 +11276,7 @@
       </c>
       <c r="K27">
         <f t="shared" si="2"/>
-        <v>397</v>
+        <v>32</v>
       </c>
       <c r="L27" s="14">
         <f>Mar_2014!$I$3</f>

--- a/Data/CRCP Sediment Data Bulk Weight and Composition.xlsx
+++ b/Data/CRCP Sediment Data Bulk Weight and Composition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mar_2014" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="79">
   <si>
     <t>Pod(P)/Tube(T)</t>
   </si>
@@ -255,6 +255,18 @@
   <si>
     <t>NAN</t>
   </si>
+  <si>
+    <t>P2A-a</t>
+  </si>
+  <si>
+    <t>P2A-b</t>
+  </si>
+  <si>
+    <t>T1B-a</t>
+  </si>
+  <si>
+    <t>T1B-b</t>
+  </si>
 </sst>
 </file>
 
@@ -265,7 +277,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -349,6 +361,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -463,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -586,6 +604,15 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,6 +620,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1067,16 +1097,16 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="F7" s="66" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="F7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
@@ -2200,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="A7" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2270,16 +2300,16 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="F7" s="66" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="F7" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
@@ -2294,7 +2324,7 @@
       <c r="D8" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="25" t="s">
         <v>1</v>
       </c>
@@ -2317,29 +2347,31 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="18">
-        <v>70.528000000000006</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18">
-        <v>-70.528000000000006</v>
-      </c>
-      <c r="E9" s="13" t="str">
+      <c r="B9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="67" t="str">
         <f>A9</f>
         <v>P1A</v>
       </c>
-      <c r="F9" s="18">
-        <v>1.6819999999999999</v>
-      </c>
-      <c r="G9" s="18">
-        <v>3.4660000000000002</v>
-      </c>
-      <c r="H9" s="18">
-        <v>1.784</v>
+      <c r="F9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="I9">
         <v>-14.290179999999999</v>
@@ -2356,29 +2388,31 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="18">
         <v>110.10599999999999</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18">
+        <v>116.49</v>
+      </c>
       <c r="D10" s="18">
-        <v>-110.10599999999999</v>
-      </c>
-      <c r="E10" s="13" t="str">
+        <v>6.3840000000000003</v>
+      </c>
+      <c r="E10" s="67" t="str">
         <f t="shared" ref="E10:E27" si="1">A10</f>
         <v>P1B</v>
       </c>
       <c r="F10" s="18">
         <v>1.667</v>
       </c>
-      <c r="G10" s="18">
-        <v>2.552</v>
+      <c r="G10" s="68">
+        <v>2.5739999999999998</v>
       </c>
       <c r="H10" s="18">
-        <v>0.88500000000000001</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="I10">
         <v>-14.28941</v>
@@ -2395,29 +2429,31 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="18">
         <v>112.16200000000001</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="18">
+        <v>113.012</v>
+      </c>
       <c r="D11" s="18">
-        <v>-112.16200000000001</v>
-      </c>
-      <c r="E11" s="13" t="str">
+        <v>0.85</v>
+      </c>
+      <c r="E11" s="67" t="str">
         <f t="shared" si="1"/>
         <v>P1C</v>
       </c>
       <c r="F11" s="18">
         <v>1.738</v>
       </c>
-      <c r="G11" s="18">
-        <v>4.9089999999999998</v>
+      <c r="G11" s="68">
+        <v>4.4000000000000004</v>
       </c>
       <c r="H11" s="18">
-        <v>3.1709999999999998</v>
+        <v>2.6619999999999999</v>
       </c>
       <c r="I11">
         <v>-14.28833</v>
@@ -2434,29 +2470,31 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="18">
         <v>69.935000000000002</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="18">
+        <v>73.394999999999996</v>
+      </c>
       <c r="D12" s="18">
-        <v>-69.935000000000002</v>
-      </c>
-      <c r="E12" s="13" t="str">
+        <v>3.46</v>
+      </c>
+      <c r="E12" s="67" t="str">
         <f t="shared" si="1"/>
         <v>P2A</v>
       </c>
       <c r="F12" s="18">
         <v>1.615</v>
       </c>
-      <c r="G12" s="18">
-        <v>6.6520000000000001</v>
+      <c r="G12" s="68">
+        <v>6.3120000000000003</v>
       </c>
       <c r="H12" s="18">
-        <v>5.0369999999999999</v>
+        <v>4.6970000000000001</v>
       </c>
       <c r="I12">
         <v>-14.29177</v>
@@ -2473,29 +2511,31 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="18">
         <v>113.377</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="18">
+        <v>113.389</v>
+      </c>
       <c r="D13" s="18">
-        <v>-113.377</v>
-      </c>
-      <c r="E13" s="13" t="str">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E13" s="67" t="str">
         <f t="shared" si="1"/>
         <v>P2B</v>
       </c>
       <c r="F13" s="18">
         <v>1.74</v>
       </c>
-      <c r="G13" s="18">
-        <v>1.7130000000000001</v>
+      <c r="G13" s="68">
+        <v>1.744</v>
       </c>
       <c r="H13" s="18">
-        <v>-2.7E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I13">
         <v>-14.29142</v>
@@ -2512,29 +2552,31 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="18">
         <v>67.063000000000002</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="18">
+        <v>67.491</v>
+      </c>
       <c r="D14" s="18">
-        <v>-67.063000000000002</v>
-      </c>
-      <c r="E14" s="13" t="str">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E14" s="67" t="str">
         <f t="shared" si="1"/>
         <v>P2C</v>
       </c>
       <c r="F14" s="18">
         <v>1.768</v>
       </c>
-      <c r="G14" s="18">
-        <v>1.7210000000000001</v>
+      <c r="G14" s="68">
+        <v>2.7869999999999999</v>
       </c>
       <c r="H14" s="18">
-        <v>-4.7E-2</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="I14">
         <v>-14.290330000000001</v>
@@ -2551,29 +2593,31 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="18">
         <v>114.633</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="18">
+        <v>114.964</v>
+      </c>
       <c r="D15" s="18">
-        <v>-114.633</v>
-      </c>
-      <c r="E15" s="13" t="str">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="E15" s="67" t="str">
         <f t="shared" si="1"/>
         <v>P3A</v>
       </c>
       <c r="F15" s="18">
         <v>1.6679999999999999</v>
       </c>
-      <c r="G15" s="18">
-        <v>1.792</v>
+      <c r="G15" s="68">
+        <v>1.8169999999999999</v>
       </c>
       <c r="H15" s="18">
-        <v>0.124</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="I15">
         <v>-14.292730000000001</v>
@@ -2590,29 +2634,31 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="18">
         <v>67.495000000000005</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="18">
+        <v>67.531999999999996</v>
+      </c>
       <c r="D16" s="18">
-        <v>-67.495000000000005</v>
-      </c>
-      <c r="E16" s="13" t="str">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E16" s="67" t="str">
         <f t="shared" si="1"/>
         <v>P3B</v>
       </c>
       <c r="F16" s="18">
         <v>1.681</v>
       </c>
-      <c r="G16" s="18">
-        <v>1.8759999999999999</v>
+      <c r="G16" s="68">
+        <v>1.724</v>
       </c>
       <c r="H16" s="18">
-        <v>0.19500000000000001</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="I16">
         <v>-14.293839999999999</v>
@@ -2629,29 +2675,31 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="18">
         <v>68.353999999999999</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="18">
+        <v>68.385999999999996</v>
+      </c>
       <c r="D17" s="18">
-        <v>-68.353999999999999</v>
-      </c>
-      <c r="E17" s="13" t="str">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E17" s="67" t="str">
         <f t="shared" si="1"/>
         <v>P3C</v>
       </c>
       <c r="F17" s="18">
         <v>1.6910000000000001</v>
       </c>
-      <c r="G17" s="18">
-        <v>1.716</v>
+      <c r="G17" s="68">
+        <v>1.7070000000000001</v>
       </c>
       <c r="H17" s="18">
-        <v>2.5000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I17">
         <v>-14.293369999999999</v>
@@ -2673,34 +2721,36 @@
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="13"/>
+      <c r="E18" s="67"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="18">
-        <v>68.125</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18">
-        <v>-68.125</v>
-      </c>
-      <c r="E19" s="13" t="str">
+      <c r="B19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="67" t="str">
         <f t="shared" si="1"/>
         <v>T1A</v>
       </c>
-      <c r="F19" s="18">
-        <v>1.653</v>
-      </c>
-      <c r="G19" s="18">
-        <v>2.9359999999999999</v>
-      </c>
-      <c r="H19" s="18">
-        <v>1.2829999999999999</v>
+      <c r="F19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="I19">
         <v>-14.290179999999999</v>
@@ -2717,29 +2767,31 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="18">
         <v>112.46299999999999</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="18">
+        <v>118.566</v>
+      </c>
       <c r="D20" s="18">
-        <v>-112.46299999999999</v>
-      </c>
-      <c r="E20" s="13" t="str">
+        <v>6.1029999999999998</v>
+      </c>
+      <c r="E20" s="67" t="str">
         <f t="shared" si="1"/>
         <v>T1B</v>
       </c>
       <c r="F20" s="18">
         <v>1.6779999999999999</v>
       </c>
-      <c r="G20" s="18">
-        <v>4.3179999999999996</v>
+      <c r="G20" s="68">
+        <v>5.32</v>
       </c>
       <c r="H20" s="18">
-        <v>2.64</v>
+        <v>3.6419999999999999</v>
       </c>
       <c r="I20">
         <v>-14.28941</v>
@@ -2756,29 +2808,31 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="18">
         <v>66.397000000000006</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="18">
+        <v>67.463999999999999</v>
+      </c>
       <c r="D21" s="18">
-        <v>-66.397000000000006</v>
-      </c>
-      <c r="E21" s="13" t="str">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="E21" s="67" t="str">
         <f t="shared" si="1"/>
         <v>T1C</v>
       </c>
       <c r="F21" s="18">
         <v>1.7090000000000001</v>
       </c>
-      <c r="G21" s="18">
-        <v>3.4740000000000002</v>
+      <c r="G21" s="68">
+        <v>2.06</v>
       </c>
       <c r="H21" s="18">
-        <v>1.7649999999999999</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="I21">
         <v>-14.28833</v>
@@ -2795,29 +2849,31 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="18">
         <v>70.290999999999997</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="18">
+        <v>77.766999999999996</v>
+      </c>
       <c r="D22" s="18">
-        <v>-70.290999999999997</v>
-      </c>
-      <c r="E22" s="13" t="str">
+        <v>7.476</v>
+      </c>
+      <c r="E22" s="67" t="str">
         <f t="shared" si="1"/>
         <v>T2A</v>
       </c>
       <c r="F22" s="18">
         <v>1.6759999999999999</v>
       </c>
-      <c r="G22" s="18">
-        <v>7.093</v>
+      <c r="G22" s="68">
+        <v>3.8679999999999999</v>
       </c>
       <c r="H22" s="18">
-        <v>5.4169999999999998</v>
+        <v>2.1920000000000002</v>
       </c>
       <c r="I22">
         <v>-14.29177</v>
@@ -2834,29 +2890,31 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="18">
         <v>115.11</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="18">
+        <v>115.119</v>
+      </c>
       <c r="D23" s="18">
-        <v>-115.11</v>
-      </c>
-      <c r="E23" s="13" t="str">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E23" s="67" t="str">
         <f t="shared" si="1"/>
         <v>T2B</v>
       </c>
       <c r="F23" s="18">
         <v>1.728</v>
       </c>
-      <c r="G23" s="18">
-        <v>1.75</v>
+      <c r="G23" s="68">
+        <v>1.8149999999999999</v>
       </c>
       <c r="H23" s="18">
-        <v>2.1999999999999999E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="I23">
         <v>-14.29142</v>
@@ -2873,29 +2931,31 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="18">
         <v>69.381</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="18">
+        <v>70.066000000000003</v>
+      </c>
       <c r="D24" s="18">
-        <v>-69.381</v>
-      </c>
-      <c r="E24" s="13" t="str">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E24" s="67" t="str">
         <f t="shared" si="1"/>
         <v>T2C</v>
       </c>
       <c r="F24" s="18">
         <v>1.746</v>
       </c>
-      <c r="G24" s="18">
-        <v>4.3550000000000004</v>
+      <c r="G24" s="68">
+        <v>3.8530000000000002</v>
       </c>
       <c r="H24" s="18">
-        <v>2.609</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="I24">
         <v>-14.290330000000001</v>
@@ -2912,29 +2972,31 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="18">
         <v>113.40300000000001</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="18">
+        <v>113.651</v>
+      </c>
       <c r="D25" s="18">
-        <v>-113.40300000000001</v>
-      </c>
-      <c r="E25" s="13" t="str">
+        <v>0.248</v>
+      </c>
+      <c r="E25" s="67" t="str">
         <f t="shared" si="1"/>
         <v>T3A</v>
       </c>
       <c r="F25" s="18">
         <v>1.66</v>
       </c>
-      <c r="G25" s="18">
-        <v>2.3210000000000002</v>
+      <c r="G25" s="68">
+        <v>2.0219999999999998</v>
       </c>
       <c r="H25" s="18">
-        <v>0.66100000000000003</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="I25">
         <v>-14.292730000000001</v>
@@ -2951,29 +3013,31 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="18">
         <v>113.386</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="18">
+        <v>113.798</v>
+      </c>
       <c r="D26" s="18">
-        <v>-113.386</v>
-      </c>
-      <c r="E26" s="13" t="str">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E26" s="67" t="str">
         <f t="shared" si="1"/>
         <v>T3B</v>
       </c>
       <c r="F26" s="18">
         <v>1.706</v>
       </c>
-      <c r="G26" s="18">
-        <v>2.5979999999999999</v>
+      <c r="G26" s="68">
+        <v>2.254</v>
       </c>
       <c r="H26" s="18">
-        <v>0.89200000000000002</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="I26">
         <v>-14.293839999999999</v>
@@ -2990,29 +3054,31 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="18">
         <v>70.397999999999996</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="18">
+        <v>70.492999999999995</v>
+      </c>
       <c r="D27" s="18">
-        <v>-70.397999999999996</v>
-      </c>
-      <c r="E27" s="13" t="str">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E27" s="67" t="str">
         <f t="shared" si="1"/>
         <v>T3C</v>
       </c>
       <c r="F27" s="18">
         <v>1.6339999999999999</v>
       </c>
-      <c r="G27" s="18">
-        <v>1.7430000000000001</v>
+      <c r="G27" s="68">
+        <v>1.6839999999999999</v>
       </c>
       <c r="H27" s="18">
-        <v>0.109</v>
+        <v>0.05</v>
       </c>
       <c r="I27">
         <v>-14.293369999999999</v>
@@ -3041,10 +3107,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+    <sheetView topLeftCell="A8" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3113,38 +3179,38 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="F7" s="66" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="F7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="29"/>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="31" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="32" t="s">
@@ -3160,18 +3226,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="18">
-        <v>70.528000000000006</v>
-      </c>
-      <c r="C9" s="17"/>
+      <c r="B9" s="68">
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="C9" s="18">
+        <v>4.7279999999999998</v>
+      </c>
       <c r="D9" s="18">
-        <v>-70.528000000000006</v>
-      </c>
-      <c r="E9" s="13" t="str">
+        <v>2.242</v>
+      </c>
+      <c r="E9" s="67" t="str">
         <f>A9</f>
         <v>P1A</v>
       </c>
@@ -3191,7 +3259,7 @@
         <v>-170.6814</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9:K17" si="0">$B$3-$B$2</f>
+        <f t="shared" ref="K9:K19" si="0">$B$3-$B$2</f>
         <v>30</v>
       </c>
       <c r="L9" s="14">
@@ -3199,19 +3267,21 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="18">
-        <v>110.10599999999999</v>
-      </c>
-      <c r="C10" s="17"/>
+      <c r="B10" s="68">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="C10" s="18">
+        <v>6.7910000000000004</v>
+      </c>
       <c r="D10" s="18">
-        <v>-110.10599999999999</v>
-      </c>
-      <c r="E10" s="13" t="str">
-        <f t="shared" ref="E10:E27" si="1">A10</f>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E10" s="67" t="str">
+        <f t="shared" ref="E10:E31" si="1">A10</f>
         <v>P1B</v>
       </c>
       <c r="F10" s="18">
@@ -3238,18 +3308,20 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="18">
-        <v>112.16200000000001</v>
-      </c>
-      <c r="C11" s="17"/>
+      <c r="B11" s="68">
+        <v>2.476</v>
+      </c>
+      <c r="C11" s="18">
+        <v>4.4800000000000004</v>
+      </c>
       <c r="D11" s="18">
-        <v>-112.16200000000001</v>
-      </c>
-      <c r="E11" s="13" t="str">
+        <v>2.004</v>
+      </c>
+      <c r="E11" s="67" t="str">
         <f t="shared" si="1"/>
         <v>P1C</v>
       </c>
@@ -3279,18 +3351,14 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="18">
-        <v>69.935000000000002</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B12" s="18"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="18">
-        <v>-69.935000000000002</v>
-      </c>
-      <c r="E12" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>P2A</v>
+      <c r="D12" s="18"/>
+      <c r="E12" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P2A-a</v>
       </c>
       <c r="F12" s="18">
         <v>1.6379999999999999</v>
@@ -3318,72 +3386,51 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="18">
-        <v>113.377</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18">
-        <v>-113.377</v>
-      </c>
-      <c r="E13" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>P2B</v>
+        <v>76</v>
+      </c>
+      <c r="E13" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P2A-b</v>
       </c>
       <c r="F13" s="18">
-        <v>1.681</v>
+        <v>1.6819999999999999</v>
       </c>
       <c r="G13" s="18">
-        <v>1.7130000000000001</v>
+        <v>6.22</v>
       </c>
       <c r="H13" s="18">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I13">
-        <v>-14.29142</v>
-      </c>
-      <c r="J13">
-        <v>-170.67930000000001</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L13" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.5380000000000003</v>
+      </c>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="18">
-        <v>67.063000000000002</v>
-      </c>
-      <c r="C14" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="B14" s="68">
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="C14" s="18">
+        <v>10.756</v>
+      </c>
       <c r="D14" s="18">
-        <v>-67.063000000000002</v>
-      </c>
-      <c r="E14" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>P2C</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="G14" s="18">
-        <v>1.7210000000000001</v>
-      </c>
+        <v>8.2490000000000006</v>
+      </c>
+      <c r="E14" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P2A</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="18">
-        <v>2.5999999999999999E-2</v>
+        <f>H12+H13</f>
+        <v>9.5519999999999996</v>
       </c>
       <c r="I14">
-        <v>-14.290330000000001</v>
+        <v>-14.29177</v>
       </c>
       <c r="J14">
-        <v>-170.67670000000001</v>
+        <v>-170.68219999999999</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
@@ -3394,35 +3441,37 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="18">
-        <v>114.633</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>35</v>
+      </c>
+      <c r="B15" s="68">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2.6709999999999998</v>
+      </c>
       <c r="D15" s="18">
-        <v>-114.633</v>
-      </c>
-      <c r="E15" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>P3A</v>
+        <v>0.17</v>
+      </c>
+      <c r="E15" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P2B</v>
       </c>
       <c r="F15" s="18">
-        <v>1.631</v>
+        <v>1.681</v>
       </c>
       <c r="G15" s="18">
-        <v>1.792</v>
+        <v>1.7130000000000001</v>
       </c>
       <c r="H15" s="18">
-        <v>0.161</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I15">
-        <v>-14.292730000000001</v>
+        <v>-14.29142</v>
       </c>
       <c r="J15">
-        <v>-170.67939999999999</v>
+        <v>-170.67930000000001</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
@@ -3433,35 +3482,37 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="18">
-        <v>67.495000000000005</v>
-      </c>
-      <c r="C16" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="B16" s="68">
+        <v>2.476</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3.7080000000000002</v>
+      </c>
       <c r="D16" s="18">
-        <v>-67.495000000000005</v>
-      </c>
-      <c r="E16" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>P3B</v>
+        <v>1.232</v>
+      </c>
+      <c r="E16" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P2C</v>
       </c>
       <c r="F16" s="18">
-        <v>1.653</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="G16" s="18">
-        <v>1.8759999999999999</v>
+        <v>1.7210000000000001</v>
       </c>
       <c r="H16" s="18">
-        <v>0.223</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I16">
-        <v>-14.293839999999999</v>
+        <v>-14.290330000000001</v>
       </c>
       <c r="J16">
-        <v>-170.6773</v>
+        <v>-170.67670000000001</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
@@ -3472,35 +3523,37 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="18">
-        <v>68.353999999999999</v>
-      </c>
-      <c r="C17" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="B17" s="68">
+        <v>2.52</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2.7759999999999998</v>
+      </c>
       <c r="D17" s="18">
-        <v>-68.353999999999999</v>
-      </c>
-      <c r="E17" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>P3C</v>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E17" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P3A</v>
       </c>
       <c r="F17" s="18">
-        <v>1.7110000000000001</v>
+        <v>1.631</v>
       </c>
       <c r="G17" s="18">
-        <v>1.716</v>
+        <v>1.792</v>
       </c>
       <c r="H17" s="18">
-        <v>5.0000000000000001E-3</v>
+        <v>0.161</v>
       </c>
       <c r="I17">
-        <v>-14.293369999999999</v>
+        <v>-14.292730000000001</v>
       </c>
       <c r="J17">
-        <v>-170.6754</v>
+        <v>-170.67939999999999</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
@@ -3511,126 +3564,132 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="68">
+        <v>2.5259999999999998</v>
+      </c>
+      <c r="C18" s="18">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="D18" s="18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E18" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P3B</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1.653</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.223</v>
+      </c>
+      <c r="I18">
+        <v>-14.293839999999999</v>
+      </c>
+      <c r="J18">
+        <v>-170.6773</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L18" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="68">
+        <v>2.5230000000000001</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2.54</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E19" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P3C</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1.716</v>
+      </c>
+      <c r="H19" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I19">
+        <v>-14.293369999999999</v>
+      </c>
+      <c r="J19">
+        <v>-170.6754</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L19" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="18">
-        <v>68.125</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18">
-        <v>-68.125</v>
-      </c>
-      <c r="E19" s="13" t="str">
+      <c r="B21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="67" t="str">
         <f t="shared" si="1"/>
         <v>T1A</v>
       </c>
-      <c r="F19" s="18">
-        <v>1.673</v>
-      </c>
-      <c r="G19" s="18">
-        <v>2.9359999999999999</v>
-      </c>
-      <c r="H19" s="18">
-        <v>1.2629999999999999</v>
-      </c>
-      <c r="I19">
+      <c r="F21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21">
         <v>-14.290179999999999</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <v>-170.6814</v>
       </c>
-      <c r="K19">
-        <f t="shared" ref="K19:K27" si="2">$B$3-$B$2</f>
-        <v>30</v>
-      </c>
-      <c r="L19" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="18">
-        <v>112.46299999999999</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18">
-        <v>-112.46299999999999</v>
-      </c>
-      <c r="E20" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T1B</v>
-      </c>
-      <c r="F20" s="18">
-        <v>1.627</v>
-      </c>
-      <c r="G20" s="18">
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="H20" s="18">
-        <v>2.6909999999999998</v>
-      </c>
-      <c r="I20">
-        <v>-14.28941</v>
-      </c>
-      <c r="J20">
-        <v>-170.67959999999999</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L20" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="18">
-        <v>66.397000000000006</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18">
-        <v>-66.397000000000006</v>
-      </c>
-      <c r="E21" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T1C</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1.6830000000000001</v>
-      </c>
-      <c r="G21" s="18">
-        <v>3.4740000000000002</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1.7909999999999999</v>
-      </c>
-      <c r="I21">
-        <v>-14.28833</v>
-      </c>
-      <c r="J21">
-        <v>-170.67789999999999</v>
-      </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K21:K31" si="2">$B$3-$B$2</f>
         <v>30</v>
       </c>
       <c r="L21" s="14">
@@ -3638,113 +3697,78 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="18">
-        <v>70.290999999999997</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18">
-        <v>-70.290999999999997</v>
-      </c>
-      <c r="E22" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T2A</v>
+        <v>77</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T1B-a</v>
       </c>
       <c r="F22" s="18">
         <v>1.6779999999999999</v>
       </c>
-      <c r="G22" s="18">
-        <v>7.093</v>
+      <c r="G22" s="68">
+        <v>6.3970000000000002</v>
       </c>
       <c r="H22" s="18">
-        <v>5.415</v>
-      </c>
-      <c r="I22">
-        <v>-14.29177</v>
-      </c>
-      <c r="J22">
-        <v>-170.68219999999999</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L22" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
+        <v>4.7190000000000003</v>
+      </c>
+      <c r="L22" s="14"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="18">
-        <v>115.11</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18">
-        <v>-115.11</v>
-      </c>
-      <c r="E23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T2B</v>
+        <v>78</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T1B-b</v>
       </c>
       <c r="F23" s="18">
-        <v>1.667</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1.75</v>
+        <v>1.653</v>
+      </c>
+      <c r="G23" s="16">
+        <v>4.8170000000000002</v>
       </c>
       <c r="H23" s="18">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="I23">
-        <v>-14.29142</v>
-      </c>
-      <c r="J23">
-        <v>-170.67930000000001</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L23" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
+        <v>3.1640000000000001</v>
+      </c>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="18">
-        <v>69.381</v>
-      </c>
-      <c r="C24" s="17"/>
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="C24" s="18">
+        <v>17.739999999999998</v>
+      </c>
       <c r="D24" s="18">
-        <v>-69.381</v>
-      </c>
-      <c r="E24" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T2C</v>
-      </c>
-      <c r="F24" s="18">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="G24" s="18">
-        <v>4.3550000000000004</v>
-      </c>
+        <v>15.255000000000001</v>
+      </c>
+      <c r="E24" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T1B</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="18">
-        <v>2.6869999999999998</v>
+        <f>H22+H23</f>
+        <v>7.8830000000000009</v>
       </c>
       <c r="I24">
-        <v>-14.290330000000001</v>
+        <v>-14.28941</v>
       </c>
       <c r="J24">
-        <v>-170.67670000000001</v>
+        <v>-170.67959999999999</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
@@ -3755,35 +3779,37 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="18">
-        <v>113.40300000000001</v>
-      </c>
-      <c r="C25" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="68">
+        <v>2.488</v>
+      </c>
+      <c r="C25" s="18">
+        <v>3.8149999999999999</v>
+      </c>
       <c r="D25" s="18">
-        <v>-113.40300000000001</v>
-      </c>
-      <c r="E25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T3A</v>
+        <v>1.327</v>
+      </c>
+      <c r="E25" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T1C</v>
       </c>
       <c r="F25" s="18">
-        <v>1.639</v>
-      </c>
-      <c r="G25" s="18">
-        <v>2.3210000000000002</v>
+        <v>1.71</v>
+      </c>
+      <c r="G25" s="68">
+        <v>4.8410000000000002</v>
       </c>
       <c r="H25" s="18">
-        <v>0.68200000000000005</v>
+        <v>3.1309999999999998</v>
       </c>
       <c r="I25">
-        <v>-14.292730000000001</v>
+        <v>-14.28833</v>
       </c>
       <c r="J25">
-        <v>-170.67939999999999</v>
+        <v>-170.67789999999999</v>
       </c>
       <c r="K25">
         <f t="shared" si="2"/>
@@ -3794,33 +3820,37 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="18">
-        <v>113.386</v>
-      </c>
-      <c r="C26" s="17"/>
+        <v>10</v>
+      </c>
+      <c r="B26" s="68">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="C26" s="18">
+        <v>3.0129999999999999</v>
+      </c>
       <c r="D26" s="18">
-        <v>-113.386</v>
-      </c>
-      <c r="E26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T3B</v>
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="E26" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T2A</v>
       </c>
       <c r="F26" s="18">
-        <v>1.71</v>
-      </c>
-      <c r="G26" s="17"/>
+        <v>1.639</v>
+      </c>
+      <c r="G26" s="68">
+        <v>12.705</v>
+      </c>
       <c r="H26" s="18">
-        <v>-1.71</v>
+        <v>11.066000000000001</v>
       </c>
       <c r="I26">
-        <v>-14.293839999999999</v>
+        <v>-14.29177</v>
       </c>
       <c r="J26">
-        <v>-170.6773</v>
+        <v>-170.68219999999999</v>
       </c>
       <c r="K26">
         <f t="shared" si="2"/>
@@ -3831,41 +3861,207 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="18">
-        <v>70.397999999999996</v>
-      </c>
-      <c r="C27" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="B27" s="68">
+        <v>2.4780000000000002</v>
+      </c>
+      <c r="C27" s="18">
+        <v>3.0870000000000002</v>
+      </c>
       <c r="D27" s="18">
-        <v>-70.397999999999996</v>
-      </c>
-      <c r="E27" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T3C</v>
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="E27" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T2B</v>
       </c>
       <c r="F27" s="18">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1.7430000000000001</v>
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="G27" s="68">
+        <v>2.8420000000000001</v>
       </c>
       <c r="H27" s="18">
-        <v>7.4999999999999997E-2</v>
+        <v>1.1639999999999999</v>
       </c>
       <c r="I27">
-        <v>-14.293369999999999</v>
+        <v>-14.29142</v>
       </c>
       <c r="J27">
-        <v>-170.6754</v>
+        <v>-170.67930000000001</v>
       </c>
       <c r="K27">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L27" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="68">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="C28" s="18">
+        <v>4.13</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1.629</v>
+      </c>
+      <c r="E28" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T2C</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="G28" s="68">
+        <v>5.23</v>
+      </c>
+      <c r="H28" s="18">
+        <v>3.5619999999999998</v>
+      </c>
+      <c r="I28">
+        <v>-14.290330000000001</v>
+      </c>
+      <c r="J28">
+        <v>-170.67670000000001</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L28" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="68">
+        <v>2.4870000000000001</v>
+      </c>
+      <c r="C29" s="18">
+        <v>3.8069999999999999</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1.32</v>
+      </c>
+      <c r="E29" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T3A</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1.627</v>
+      </c>
+      <c r="G29" s="68">
+        <v>3.133</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1.506</v>
+      </c>
+      <c r="I29">
+        <v>-14.292730000000001</v>
+      </c>
+      <c r="J29">
+        <v>-170.67939999999999</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L29" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="68">
+        <v>2.484</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2.6240000000000001</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E30" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T3B</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1.667</v>
+      </c>
+      <c r="G30" s="68">
+        <v>4.3579999999999997</v>
+      </c>
+      <c r="H30" s="18">
+        <v>2.6909999999999998</v>
+      </c>
+      <c r="I30">
+        <v>-14.293839999999999</v>
+      </c>
+      <c r="J30">
+        <v>-170.6773</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L30" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="68">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C31" s="18">
+        <v>2.84</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0.37</v>
+      </c>
+      <c r="E31" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T3C</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="G31" s="68">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0.128</v>
+      </c>
+      <c r="I31">
+        <v>-14.293369999999999</v>
+      </c>
+      <c r="J31">
+        <v>-170.6754</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L31" s="14">
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
@@ -3949,16 +4145,16 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="F7" s="66" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="F7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
@@ -4740,7 +4936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -4805,16 +5001,16 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="F7" s="66" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="F7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
@@ -5600,8 +5796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5664,16 +5860,16 @@
       <c r="A7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="F7" s="67" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="F7" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
     </row>
     <row r="8" spans="1:12" s="41" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
@@ -6707,16 +6903,16 @@
       <c r="A7" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="F7" s="68" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="F7" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:12" s="60" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="57" t="s">
@@ -7792,16 +7988,16 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="F7" s="66" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="F7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
@@ -8634,7 +8830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
@@ -8702,16 +8898,16 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="F7" s="66" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="F7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
@@ -8846,7 +9042,7 @@
         <v>69.652000000000001</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D10:D16" si="3">C11-B11</f>
+        <f t="shared" ref="D11:D16" si="3">C11-B11</f>
         <v>1.5810000000000031</v>
       </c>
       <c r="E11" s="13" t="str">
@@ -9612,16 +9808,16 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="F7" s="66" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="F7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
@@ -10418,7 +10614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -10488,16 +10684,16 @@
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="F7" s="66" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="F7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">

--- a/Data/CRCP Sediment Data Bulk Weight and Composition.xlsx
+++ b/Data/CRCP Sediment Data Bulk Weight and Composition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Mar_2014" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="79">
   <si>
     <t>Pod(P)/Tube(T)</t>
   </si>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F15:H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2230,7 +2230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -3109,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4081,7 +4081,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4936,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5796,7 +5796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
@@ -6825,7 +6825,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7908,7 +7908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -8830,8 +8830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9299,8 +9299,8 @@
       <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E17" s="13" t="str">
         <f t="shared" si="2"/>
@@ -9312,8 +9312,8 @@
       <c r="G17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="1">
-        <v>0</v>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I17">
         <v>-14.293369999999999</v>
@@ -9522,8 +9522,8 @@
       <c r="C23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="1">
-        <v>0</v>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E23" s="13" t="str">
         <f t="shared" si="2"/>
@@ -9535,8 +9535,8 @@
       <c r="G23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I23">
         <v>-14.29142</v>
@@ -9739,7 +9739,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="F23" sqref="F23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10193,8 +10193,8 @@
       <c r="C17" s="16">
         <v>100.636</v>
       </c>
-      <c r="D17" s="16">
-        <v>0</v>
+      <c r="D17" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="E17" s="13" t="str">
         <f t="shared" si="1"/>
@@ -10403,23 +10403,27 @@
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
-        <v>0</v>
+      <c r="B23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="E23" s="13" t="str">
         <f t="shared" si="1"/>
         <v>T2B</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
-        <v>0</v>
+      <c r="F23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="I23">
         <v>-14.29142</v>
@@ -10614,7 +10618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Data/CRCP Sediment Data Bulk Weight and Composition.xlsx
+++ b/Data/CRCP Sediment Data Bulk Weight and Composition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Mar_2014" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Feb_2015" sheetId="13" r:id="rId10"/>
     <sheet name="Mar_2015" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -997,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -3109,7 +3109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -7908,7 +7908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/Data/CRCP Sediment Data Bulk Weight and Composition.xlsx
+++ b/Data/CRCP Sediment Data Bulk Weight and Composition.xlsx
@@ -9,27 +9,28 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="654"/>
   </bookViews>
   <sheets>
-    <sheet name="Mar_2014" sheetId="1" r:id="rId1"/>
-    <sheet name="Apr_2014" sheetId="5" r:id="rId2"/>
-    <sheet name="May_2014" sheetId="4" r:id="rId3"/>
-    <sheet name="Jun_Jul_2014" sheetId="6" r:id="rId4"/>
-    <sheet name="Aug_Sept_2014" sheetId="3" r:id="rId5"/>
-    <sheet name="Oct_2014" sheetId="7" r:id="rId6"/>
-    <sheet name="Nov_2014" sheetId="10" r:id="rId7"/>
-    <sheet name="Dec_2014" sheetId="11" r:id="rId8"/>
-    <sheet name="Jan_2015" sheetId="12" r:id="rId9"/>
-    <sheet name="Feb_2015" sheetId="13" r:id="rId10"/>
-    <sheet name="Mar_2015" sheetId="14" r:id="rId11"/>
+    <sheet name="Test_2015" sheetId="16" r:id="rId1"/>
+    <sheet name="Mar_2014" sheetId="1" r:id="rId2"/>
+    <sheet name="Apr_2014" sheetId="5" r:id="rId3"/>
+    <sheet name="May_2014" sheetId="4" r:id="rId4"/>
+    <sheet name="Jun_Jul_2014" sheetId="6" r:id="rId5"/>
+    <sheet name="Aug_Sept_2014" sheetId="3" r:id="rId6"/>
+    <sheet name="Oct_2014" sheetId="7" r:id="rId7"/>
+    <sheet name="Nov_2014" sheetId="10" r:id="rId8"/>
+    <sheet name="Dec_2014" sheetId="11" r:id="rId9"/>
+    <sheet name="Jan_2015" sheetId="12" r:id="rId10"/>
+    <sheet name="Feb_2015" sheetId="13" r:id="rId11"/>
+    <sheet name="Mar_2015" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="79">
   <si>
     <t>Pod(P)/Tube(T)</t>
   </si>
@@ -995,9 +996,3670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="8" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5">
+        <v>42074</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5">
+        <v>42104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="F7" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="68">
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="C9" s="18">
+        <v>4.7279999999999998</v>
+      </c>
+      <c r="D9" s="18">
+        <v>5</v>
+      </c>
+      <c r="E9" s="67" t="str">
+        <f>A9</f>
+        <v>P1A</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1.653</v>
+      </c>
+      <c r="G9" s="18">
+        <v>3.4660000000000002</v>
+      </c>
+      <c r="H9" s="18">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>-14.290179999999999</v>
+      </c>
+      <c r="J9">
+        <v>-170.6814</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="68">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="C10" s="18">
+        <v>6.7910000000000004</v>
+      </c>
+      <c r="D10" s="18">
+        <v>5</v>
+      </c>
+      <c r="E10" s="67" t="str">
+        <f t="shared" ref="E10:E31" si="0">A10</f>
+        <v>P1B</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1.74</v>
+      </c>
+      <c r="G10" s="18">
+        <v>2.552</v>
+      </c>
+      <c r="H10" s="18">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>-14.28941</v>
+      </c>
+      <c r="J10">
+        <v>-170.67959999999999</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="68">
+        <v>2.476</v>
+      </c>
+      <c r="C11" s="18">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="D11" s="18">
+        <v>5</v>
+      </c>
+      <c r="E11" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>P1C</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="G11" s="18">
+        <v>4.9089999999999998</v>
+      </c>
+      <c r="H11" s="18">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>-14.28833</v>
+      </c>
+      <c r="J11">
+        <v>-170.67789999999999</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>P2A-a</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="G12" s="18">
+        <v>6.6520000000000001</v>
+      </c>
+      <c r="H12" s="18">
+        <v>5.0140000000000002</v>
+      </c>
+      <c r="I12">
+        <v>-14.29177</v>
+      </c>
+      <c r="J12">
+        <v>-170.68219999999999</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>P2A-b</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="G13" s="18">
+        <v>6.22</v>
+      </c>
+      <c r="H13" s="18">
+        <v>4.5380000000000003</v>
+      </c>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="68">
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="C14" s="18">
+        <v>10.756</v>
+      </c>
+      <c r="D14" s="18">
+        <v>5</v>
+      </c>
+      <c r="E14" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>P2A</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>-14.29177</v>
+      </c>
+      <c r="J14">
+        <v>-170.68219999999999</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="68">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2.6709999999999998</v>
+      </c>
+      <c r="D15" s="18">
+        <v>5</v>
+      </c>
+      <c r="E15" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>P2B</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1.681</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="H15" s="18">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>-14.29142</v>
+      </c>
+      <c r="J15">
+        <v>-170.67930000000001</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="68">
+        <v>2.476</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="D16" s="18">
+        <v>5</v>
+      </c>
+      <c r="E16" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>P2C</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="H16" s="18">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>-14.290330000000001</v>
+      </c>
+      <c r="J16">
+        <v>-170.67670000000001</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="68">
+        <v>2.52</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2.7759999999999998</v>
+      </c>
+      <c r="D17" s="18">
+        <v>5</v>
+      </c>
+      <c r="E17" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>P3A</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1.631</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1.792</v>
+      </c>
+      <c r="H17" s="18">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>-14.292730000000001</v>
+      </c>
+      <c r="J17">
+        <v>-170.67939999999999</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="68">
+        <v>2.5259999999999998</v>
+      </c>
+      <c r="C18" s="18">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="D18" s="18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>P3B</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1.653</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="H18" s="18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>-14.293839999999999</v>
+      </c>
+      <c r="J18">
+        <v>-170.6773</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="68">
+        <v>2.5230000000000001</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2.54</v>
+      </c>
+      <c r="D19" s="18">
+        <v>5</v>
+      </c>
+      <c r="E19" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>P3C</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1.716</v>
+      </c>
+      <c r="H19" s="18">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>-14.293369999999999</v>
+      </c>
+      <c r="J19">
+        <v>-170.6754</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="18">
+        <v>5</v>
+      </c>
+      <c r="E21" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>T1A</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="18">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>-14.290179999999999</v>
+      </c>
+      <c r="J21">
+        <v>-170.6814</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>T1B-a</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="G22" s="68">
+        <v>6.3970000000000002</v>
+      </c>
+      <c r="H22" s="18">
+        <v>5</v>
+      </c>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>T1B-b</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1.653</v>
+      </c>
+      <c r="G23" s="16">
+        <v>4.8170000000000002</v>
+      </c>
+      <c r="H23" s="18">
+        <v>5</v>
+      </c>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="18">
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="C24" s="18">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="D24" s="18">
+        <v>5</v>
+      </c>
+      <c r="E24" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>T1B</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>-14.28941</v>
+      </c>
+      <c r="J24">
+        <v>-170.67959999999999</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="68">
+        <v>2.488</v>
+      </c>
+      <c r="C25" s="18">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="D25" s="18">
+        <v>5</v>
+      </c>
+      <c r="E25" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>T1C</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1.71</v>
+      </c>
+      <c r="G25" s="68">
+        <v>4.8410000000000002</v>
+      </c>
+      <c r="H25" s="18">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>-14.28833</v>
+      </c>
+      <c r="J25">
+        <v>-170.67789999999999</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="68">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="C26" s="18">
+        <v>3.0129999999999999</v>
+      </c>
+      <c r="D26" s="18">
+        <v>5</v>
+      </c>
+      <c r="E26" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>T2A</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1.639</v>
+      </c>
+      <c r="G26" s="68">
+        <v>12.705</v>
+      </c>
+      <c r="H26" s="18">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>-14.29177</v>
+      </c>
+      <c r="J26">
+        <v>-170.68219999999999</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="68">
+        <v>2.4780000000000002</v>
+      </c>
+      <c r="C27" s="18">
+        <v>3.0870000000000002</v>
+      </c>
+      <c r="D27" s="18">
+        <v>5</v>
+      </c>
+      <c r="E27" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>T2B</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="G27" s="68">
+        <v>2.8420000000000001</v>
+      </c>
+      <c r="H27" s="18">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>-14.29142</v>
+      </c>
+      <c r="J27">
+        <v>-170.67930000000001</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="68">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="C28" s="18">
+        <v>4.13</v>
+      </c>
+      <c r="D28" s="18">
+        <v>5</v>
+      </c>
+      <c r="E28" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>T2C</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="G28" s="68">
+        <v>5.23</v>
+      </c>
+      <c r="H28" s="18">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>-14.290330000000001</v>
+      </c>
+      <c r="J28">
+        <v>-170.67670000000001</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="68">
+        <v>2.4870000000000001</v>
+      </c>
+      <c r="C29" s="18">
+        <v>3.8069999999999999</v>
+      </c>
+      <c r="D29" s="18">
+        <v>5</v>
+      </c>
+      <c r="E29" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>T3A</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1.627</v>
+      </c>
+      <c r="G29" s="68">
+        <v>3.133</v>
+      </c>
+      <c r="H29" s="18">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>-14.292730000000001</v>
+      </c>
+      <c r="J29">
+        <v>-170.67939999999999</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="68">
+        <v>2.484</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2.6240000000000001</v>
+      </c>
+      <c r="D30" s="18">
+        <v>5</v>
+      </c>
+      <c r="E30" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>T3B</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1.667</v>
+      </c>
+      <c r="G30" s="68">
+        <v>4.3579999999999997</v>
+      </c>
+      <c r="H30" s="18">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>-14.293839999999999</v>
+      </c>
+      <c r="J30">
+        <v>-170.6773</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="68">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C31" s="18">
+        <v>2.84</v>
+      </c>
+      <c r="D31" s="18">
+        <v>5</v>
+      </c>
+      <c r="E31" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v>T3C</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="G31" s="68">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="H31" s="18">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>-14.293369999999999</v>
+      </c>
+      <c r="J31">
+        <v>-170.6754</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="8" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="8.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5">
+        <v>42009</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <f>B3-B2</f>
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5">
+        <v>42041</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="F7" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="18">
+        <v>100.639</v>
+      </c>
+      <c r="C9" s="18">
+        <v>108.393</v>
+      </c>
+      <c r="D9" s="18">
+        <v>7.7539999999999996</v>
+      </c>
+      <c r="E9" s="13" t="str">
+        <f>A9</f>
+        <v>P1A</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1.752</v>
+      </c>
+      <c r="G9" s="18">
+        <v>3.4660000000000002</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1.714</v>
+      </c>
+      <c r="I9">
+        <v>-14.290179999999999</v>
+      </c>
+      <c r="J9">
+        <v>-170.6814</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K17" si="0">$B$3-$B$2</f>
+        <v>32</v>
+      </c>
+      <c r="L9" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="18">
+        <v>109.652</v>
+      </c>
+      <c r="C10" s="18">
+        <v>110.869</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="E10" s="13" t="str">
+        <f t="shared" ref="E10:E27" si="1">A10</f>
+        <v>P1B</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1.67</v>
+      </c>
+      <c r="G10" s="18">
+        <v>2.552</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="I10">
+        <v>-14.28941</v>
+      </c>
+      <c r="J10">
+        <v>-170.67959999999999</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="L10" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="18">
+        <v>111.696</v>
+      </c>
+      <c r="C11" s="18">
+        <v>113.31699999999999</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1.621</v>
+      </c>
+      <c r="E11" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>P1C</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="G11" s="18">
+        <v>4.9089999999999998</v>
+      </c>
+      <c r="H11" s="18">
+        <v>3.1739999999999999</v>
+      </c>
+      <c r="I11">
+        <v>-14.28833</v>
+      </c>
+      <c r="J11">
+        <v>-170.67789999999999</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="L11" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="18">
+        <v>106.29600000000001</v>
+      </c>
+      <c r="C12" s="18">
+        <v>111.824</v>
+      </c>
+      <c r="D12" s="18">
+        <v>5.5279999999999996</v>
+      </c>
+      <c r="E12" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>P2A</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="G12" s="18">
+        <v>6.6520000000000001</v>
+      </c>
+      <c r="H12" s="18">
+        <v>4.9960000000000004</v>
+      </c>
+      <c r="I12">
+        <v>-14.29177</v>
+      </c>
+      <c r="J12">
+        <v>-170.68219999999999</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="L12" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="18">
+        <v>112.938</v>
+      </c>
+      <c r="C13" s="18">
+        <v>112.934</v>
+      </c>
+      <c r="D13" s="18">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="E13" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>P2B</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="H13" s="18">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="I13">
+        <v>-14.29142</v>
+      </c>
+      <c r="J13">
+        <v>-170.67930000000001</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="L13" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="18">
+        <v>66.795000000000002</v>
+      </c>
+      <c r="C14" s="18">
+        <v>66.825000000000003</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="E14" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>P2C</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1.712</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="H14" s="18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I14">
+        <v>-14.290330000000001</v>
+      </c>
+      <c r="J14">
+        <v>-170.67670000000001</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="L14" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="18">
+        <v>114.15600000000001</v>
+      </c>
+      <c r="C15" s="18">
+        <v>114.28100000000001</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.125</v>
+      </c>
+      <c r="E15" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>P3A</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1.716</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1.792</v>
+      </c>
+      <c r="H15" s="18">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I15">
+        <v>-14.292730000000001</v>
+      </c>
+      <c r="J15">
+        <v>-170.67939999999999</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="L15" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="18">
+        <v>67.224999999999994</v>
+      </c>
+      <c r="C16" s="18">
+        <v>67.228999999999999</v>
+      </c>
+      <c r="D16" s="18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>P3B</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1.758</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="I16">
+        <v>-14.293839999999999</v>
+      </c>
+      <c r="J16">
+        <v>-170.6773</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="L16" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="18">
+        <v>68.069000000000003</v>
+      </c>
+      <c r="C17" s="18">
+        <v>68.078999999999994</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>P3C</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1.716</v>
+      </c>
+      <c r="H17" s="18">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="I17">
+        <v>-14.293369999999999</v>
+      </c>
+      <c r="J17">
+        <v>-170.6754</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="L17" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="18">
+        <v>67.872</v>
+      </c>
+      <c r="C19" s="18">
+        <v>74.834000000000003</v>
+      </c>
+      <c r="D19" s="18">
+        <v>6.9619999999999997</v>
+      </c>
+      <c r="E19" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>T1A</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1.6930000000000001</v>
+      </c>
+      <c r="G19" s="18">
+        <v>2.9359999999999999</v>
+      </c>
+      <c r="H19" s="18">
+        <v>1.2430000000000001</v>
+      </c>
+      <c r="I19">
+        <v>-14.290179999999999</v>
+      </c>
+      <c r="J19">
+        <v>-170.6814</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K27" si="2">$B$3-$B$2</f>
+        <v>32</v>
+      </c>
+      <c r="L19" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="18">
+        <v>112.03</v>
+      </c>
+      <c r="C20" s="18">
+        <v>120.18300000000001</v>
+      </c>
+      <c r="D20" s="18">
+        <v>8.1530000000000005</v>
+      </c>
+      <c r="E20" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>T1B</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="G20" s="18">
+        <v>4.3179999999999996</v>
+      </c>
+      <c r="H20" s="18">
+        <v>2.6360000000000001</v>
+      </c>
+      <c r="I20">
+        <v>-14.28941</v>
+      </c>
+      <c r="J20">
+        <v>-170.67959999999999</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="L20" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="18">
+        <v>66.147000000000006</v>
+      </c>
+      <c r="C21" s="18">
+        <v>67.400999999999996</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1.254</v>
+      </c>
+      <c r="E21" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>T1C</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="G21" s="18">
+        <v>3.4740000000000002</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="I21">
+        <v>-14.28833</v>
+      </c>
+      <c r="J21">
+        <v>-170.67789999999999</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="L21" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="18">
+        <v>70.015000000000001</v>
+      </c>
+      <c r="C22" s="18">
+        <v>76.072999999999993</v>
+      </c>
+      <c r="D22" s="18">
+        <v>6.0579999999999998</v>
+      </c>
+      <c r="E22" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>T2A</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1.7230000000000001</v>
+      </c>
+      <c r="G22" s="18">
+        <v>7.093</v>
+      </c>
+      <c r="H22" s="18">
+        <v>5.37</v>
+      </c>
+      <c r="I22">
+        <v>-14.29177</v>
+      </c>
+      <c r="J22">
+        <v>-170.68219999999999</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="L22" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18">
+        <v>114.637</v>
+      </c>
+      <c r="C23" s="18">
+        <v>114.63800000000001</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E23" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>T2B</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1.75</v>
+      </c>
+      <c r="H23" s="18">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="I23">
+        <v>-14.29142</v>
+      </c>
+      <c r="J23">
+        <v>-170.67930000000001</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="L23" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="18">
+        <v>69.108999999999995</v>
+      </c>
+      <c r="C24" s="18">
+        <v>71.159000000000006</v>
+      </c>
+      <c r="D24" s="18">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E24" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>T2C</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="G24" s="18">
+        <v>4.3550000000000004</v>
+      </c>
+      <c r="H24" s="18">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="I24">
+        <v>-14.290330000000001</v>
+      </c>
+      <c r="J24">
+        <v>-170.67670000000001</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="L24" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="18">
+        <v>112.93600000000001</v>
+      </c>
+      <c r="C25" s="18">
+        <v>113.355</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="E25" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>T3A</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="G25" s="18">
+        <v>2.3210000000000002</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="I25">
+        <v>-14.292730000000001</v>
+      </c>
+      <c r="J25">
+        <v>-170.67939999999999</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="L25" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="18">
+        <v>112.925</v>
+      </c>
+      <c r="C26" s="18">
+        <v>113.904</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="E26" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>T3B</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1.748</v>
+      </c>
+      <c r="G26" s="18">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="I26">
+        <v>-14.293839999999999</v>
+      </c>
+      <c r="J26">
+        <v>-170.6773</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="L26" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="18">
+        <v>70.111999999999995</v>
+      </c>
+      <c r="C27" s="18">
+        <v>70.234999999999999</v>
+      </c>
+      <c r="D27" s="18">
+        <v>0.123</v>
+      </c>
+      <c r="E27" s="13" t="str">
+        <f t="shared" si="1"/>
+        <v>T3C</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1.7430000000000001</v>
+      </c>
+      <c r="H27" s="18">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="I27">
+        <v>-14.293369999999999</v>
+      </c>
+      <c r="J27">
+        <v>-170.6754</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="L27" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="8" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5">
+        <v>42041</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <f>B3-B2</f>
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5">
+        <v>42074</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="F7" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="66"/>
+      <c r="F8" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="67" t="str">
+        <f>A9</f>
+        <v>P1A</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>-14.290179999999999</v>
+      </c>
+      <c r="J9">
+        <v>-170.6814</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K17" si="0">$B$3-$B$2</f>
+        <v>33</v>
+      </c>
+      <c r="L9" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="18">
+        <v>110.10599999999999</v>
+      </c>
+      <c r="C10" s="18">
+        <v>116.49</v>
+      </c>
+      <c r="D10" s="18">
+        <v>6.3840000000000003</v>
+      </c>
+      <c r="E10" s="67" t="str">
+        <f t="shared" ref="E10:E27" si="1">A10</f>
+        <v>P1B</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1.667</v>
+      </c>
+      <c r="G10" s="68">
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="I10">
+        <v>-14.28941</v>
+      </c>
+      <c r="J10">
+        <v>-170.67959999999999</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="L10" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="18">
+        <v>112.16200000000001</v>
+      </c>
+      <c r="C11" s="18">
+        <v>113.012</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.85</v>
+      </c>
+      <c r="E11" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P1C</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1.738</v>
+      </c>
+      <c r="G11" s="68">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H11" s="18">
+        <v>2.6619999999999999</v>
+      </c>
+      <c r="I11">
+        <v>-14.28833</v>
+      </c>
+      <c r="J11">
+        <v>-170.67789999999999</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="L11" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="18">
+        <v>69.935000000000002</v>
+      </c>
+      <c r="C12" s="18">
+        <v>73.394999999999996</v>
+      </c>
+      <c r="D12" s="18">
+        <v>3.46</v>
+      </c>
+      <c r="E12" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P2A</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1.615</v>
+      </c>
+      <c r="G12" s="68">
+        <v>6.3120000000000003</v>
+      </c>
+      <c r="H12" s="18">
+        <v>4.6970000000000001</v>
+      </c>
+      <c r="I12">
+        <v>-14.29177</v>
+      </c>
+      <c r="J12">
+        <v>-170.68219999999999</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="L12" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="18">
+        <v>113.377</v>
+      </c>
+      <c r="C13" s="18">
+        <v>113.389</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E13" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P2B</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1.74</v>
+      </c>
+      <c r="G13" s="68">
+        <v>1.744</v>
+      </c>
+      <c r="H13" s="18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I13">
+        <v>-14.29142</v>
+      </c>
+      <c r="J13">
+        <v>-170.67930000000001</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="L13" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="18">
+        <v>67.063000000000002</v>
+      </c>
+      <c r="C14" s="18">
+        <v>67.491</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E14" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P2C</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1.768</v>
+      </c>
+      <c r="G14" s="68">
+        <v>2.7869999999999999</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="I14">
+        <v>-14.290330000000001</v>
+      </c>
+      <c r="J14">
+        <v>-170.67670000000001</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="L14" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="18">
+        <v>114.633</v>
+      </c>
+      <c r="C15" s="18">
+        <v>114.964</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="E15" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P3A</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="G15" s="68">
+        <v>1.8169999999999999</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="I15">
+        <v>-14.292730000000001</v>
+      </c>
+      <c r="J15">
+        <v>-170.67939999999999</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="L15" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="18">
+        <v>67.495000000000005</v>
+      </c>
+      <c r="C16" s="18">
+        <v>67.531999999999996</v>
+      </c>
+      <c r="D16" s="18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E16" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P3B</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1.681</v>
+      </c>
+      <c r="G16" s="68">
+        <v>1.724</v>
+      </c>
+      <c r="H16" s="18">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I16">
+        <v>-14.293839999999999</v>
+      </c>
+      <c r="J16">
+        <v>-170.6773</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="L16" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="18">
+        <v>68.353999999999999</v>
+      </c>
+      <c r="C17" s="18">
+        <v>68.385999999999996</v>
+      </c>
+      <c r="D17" s="18">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E17" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P3C</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="G17" s="68">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I17">
+        <v>-14.293369999999999</v>
+      </c>
+      <c r="J17">
+        <v>-170.6754</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="L17" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T1A</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>-14.290179999999999</v>
+      </c>
+      <c r="J19">
+        <v>-170.6814</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K27" si="2">$B$3-$B$2</f>
+        <v>33</v>
+      </c>
+      <c r="L19" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="18">
+        <v>112.46299999999999</v>
+      </c>
+      <c r="C20" s="18">
+        <v>118.566</v>
+      </c>
+      <c r="D20" s="18">
+        <v>6.1029999999999998</v>
+      </c>
+      <c r="E20" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T1B</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="G20" s="68">
+        <v>5.32</v>
+      </c>
+      <c r="H20" s="18">
+        <v>3.6419999999999999</v>
+      </c>
+      <c r="I20">
+        <v>-14.28941</v>
+      </c>
+      <c r="J20">
+        <v>-170.67959999999999</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L20" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="18">
+        <v>66.397000000000006</v>
+      </c>
+      <c r="C21" s="18">
+        <v>67.463999999999999</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="E21" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T1C</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="G21" s="68">
+        <v>2.06</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="I21">
+        <v>-14.28833</v>
+      </c>
+      <c r="J21">
+        <v>-170.67789999999999</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L21" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="18">
+        <v>70.290999999999997</v>
+      </c>
+      <c r="C22" s="18">
+        <v>77.766999999999996</v>
+      </c>
+      <c r="D22" s="18">
+        <v>7.476</v>
+      </c>
+      <c r="E22" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T2A</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="G22" s="68">
+        <v>3.8679999999999999</v>
+      </c>
+      <c r="H22" s="18">
+        <v>2.1920000000000002</v>
+      </c>
+      <c r="I22">
+        <v>-14.29177</v>
+      </c>
+      <c r="J22">
+        <v>-170.68219999999999</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L22" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18">
+        <v>115.11</v>
+      </c>
+      <c r="C23" s="18">
+        <v>115.119</v>
+      </c>
+      <c r="D23" s="18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E23" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T2B</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1.728</v>
+      </c>
+      <c r="G23" s="68">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="H23" s="18">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I23">
+        <v>-14.29142</v>
+      </c>
+      <c r="J23">
+        <v>-170.67930000000001</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L23" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="18">
+        <v>69.381</v>
+      </c>
+      <c r="C24" s="18">
+        <v>70.066000000000003</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="E24" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T2C</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1.746</v>
+      </c>
+      <c r="G24" s="68">
+        <v>3.8530000000000002</v>
+      </c>
+      <c r="H24" s="18">
+        <v>2.1070000000000002</v>
+      </c>
+      <c r="I24">
+        <v>-14.290330000000001</v>
+      </c>
+      <c r="J24">
+        <v>-170.67670000000001</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L24" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="18">
+        <v>113.40300000000001</v>
+      </c>
+      <c r="C25" s="18">
+        <v>113.651</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0.248</v>
+      </c>
+      <c r="E25" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T3A</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1.66</v>
+      </c>
+      <c r="G25" s="68">
+        <v>2.0219999999999998</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="I25">
+        <v>-14.292730000000001</v>
+      </c>
+      <c r="J25">
+        <v>-170.67939999999999</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L25" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="18">
+        <v>113.386</v>
+      </c>
+      <c r="C26" s="18">
+        <v>113.798</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E26" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T3B</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1.706</v>
+      </c>
+      <c r="G26" s="68">
+        <v>2.254</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="I26">
+        <v>-14.293839999999999</v>
+      </c>
+      <c r="J26">
+        <v>-170.6773</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L26" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="18">
+        <v>70.397999999999996</v>
+      </c>
+      <c r="C27" s="18">
+        <v>70.492999999999995</v>
+      </c>
+      <c r="D27" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E27" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T3C</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1.6339999999999999</v>
+      </c>
+      <c r="G27" s="68">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="I27">
+        <v>-14.293369999999999</v>
+      </c>
+      <c r="J27">
+        <v>-170.6754</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="L27" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="8" width="11" customWidth="1"/>
+    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="12" max="12" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5">
+        <v>42074</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2">
+        <f>B3-B2</f>
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5">
+        <v>42104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="F7" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="68">
+        <v>2.4860000000000002</v>
+      </c>
+      <c r="C9" s="18">
+        <v>4.7279999999999998</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2.242</v>
+      </c>
+      <c r="E9" s="67" t="str">
+        <f>A9</f>
+        <v>P1A</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1.653</v>
+      </c>
+      <c r="G9" s="18">
+        <v>3.4660000000000002</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="I9">
+        <v>-14.290179999999999</v>
+      </c>
+      <c r="J9">
+        <v>-170.6814</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K19" si="0">$B$3-$B$2</f>
+        <v>30</v>
+      </c>
+      <c r="L9" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="68">
+        <v>2.4809999999999999</v>
+      </c>
+      <c r="C10" s="18">
+        <v>6.7910000000000004</v>
+      </c>
+      <c r="D10" s="18">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E10" s="67" t="str">
+        <f t="shared" ref="E10:E31" si="1">A10</f>
+        <v>P1B</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1.74</v>
+      </c>
+      <c r="G10" s="18">
+        <v>2.552</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="I10">
+        <v>-14.28941</v>
+      </c>
+      <c r="J10">
+        <v>-170.67959999999999</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L10" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="68">
+        <v>2.476</v>
+      </c>
+      <c r="C11" s="18">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2.004</v>
+      </c>
+      <c r="E11" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P1C</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="G11" s="18">
+        <v>4.9089999999999998</v>
+      </c>
+      <c r="H11" s="18">
+        <v>3.1779999999999999</v>
+      </c>
+      <c r="I11">
+        <v>-14.28833</v>
+      </c>
+      <c r="J11">
+        <v>-170.67789999999999</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L11" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P2A-a</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="G12" s="18">
+        <v>6.6520000000000001</v>
+      </c>
+      <c r="H12" s="18">
+        <v>5.0140000000000002</v>
+      </c>
+      <c r="I12">
+        <v>-14.29177</v>
+      </c>
+      <c r="J12">
+        <v>-170.68219999999999</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L12" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P2A-b</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="G13" s="18">
+        <v>6.22</v>
+      </c>
+      <c r="H13" s="18">
+        <v>4.5380000000000003</v>
+      </c>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="68">
+        <v>2.5070000000000001</v>
+      </c>
+      <c r="C14" s="18">
+        <v>10.756</v>
+      </c>
+      <c r="D14" s="18">
+        <v>8.2490000000000006</v>
+      </c>
+      <c r="E14" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P2A</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18">
+        <f>H12+H13</f>
+        <v>9.5519999999999996</v>
+      </c>
+      <c r="I14">
+        <v>-14.29177</v>
+      </c>
+      <c r="J14">
+        <v>-170.68219999999999</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L14" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="68">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2.6709999999999998</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.17</v>
+      </c>
+      <c r="E15" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P2B</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1.681</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="H15" s="18">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I15">
+        <v>-14.29142</v>
+      </c>
+      <c r="J15">
+        <v>-170.67930000000001</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L15" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="68">
+        <v>2.476</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3.7080000000000002</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1.232</v>
+      </c>
+      <c r="E16" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P2C</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="H16" s="18">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I16">
+        <v>-14.290330000000001</v>
+      </c>
+      <c r="J16">
+        <v>-170.67670000000001</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L16" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="68">
+        <v>2.52</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2.7759999999999998</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E17" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P3A</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1.631</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1.792</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0.161</v>
+      </c>
+      <c r="I17">
+        <v>-14.292730000000001</v>
+      </c>
+      <c r="J17">
+        <v>-170.67939999999999</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L17" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="68">
+        <v>2.5259999999999998</v>
+      </c>
+      <c r="C18" s="18">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="D18" s="18">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E18" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P3B</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1.653</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.223</v>
+      </c>
+      <c r="I18">
+        <v>-14.293839999999999</v>
+      </c>
+      <c r="J18">
+        <v>-170.6773</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L18" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="68">
+        <v>2.5230000000000001</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2.54</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E19" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>P3C</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1.716</v>
+      </c>
+      <c r="H19" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I19">
+        <v>-14.293369999999999</v>
+      </c>
+      <c r="J19">
+        <v>-170.6754</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L19" s="14">
+        <f>Mar_2014!$I$2</f>
+        <v>1.8241469247509915E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T1A</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>-14.290179999999999</v>
+      </c>
+      <c r="J21">
+        <v>-170.6814</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:K31" si="2">$B$3-$B$2</f>
+        <v>30</v>
+      </c>
+      <c r="L21" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T1B-a</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="G22" s="68">
+        <v>6.3970000000000002</v>
+      </c>
+      <c r="H22" s="18">
+        <v>4.7190000000000003</v>
+      </c>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T1B-b</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1.653</v>
+      </c>
+      <c r="G23" s="16">
+        <v>4.8170000000000002</v>
+      </c>
+      <c r="H23" s="18">
+        <v>3.1640000000000001</v>
+      </c>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="18">
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="C24" s="18">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="D24" s="18">
+        <v>15.255000000000001</v>
+      </c>
+      <c r="E24" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T1B</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18">
+        <f>H22+H23</f>
+        <v>7.8830000000000009</v>
+      </c>
+      <c r="I24">
+        <v>-14.28941</v>
+      </c>
+      <c r="J24">
+        <v>-170.67959999999999</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L24" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="68">
+        <v>2.488</v>
+      </c>
+      <c r="C25" s="18">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1.327</v>
+      </c>
+      <c r="E25" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T1C</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1.71</v>
+      </c>
+      <c r="G25" s="68">
+        <v>4.8410000000000002</v>
+      </c>
+      <c r="H25" s="18">
+        <v>3.1309999999999998</v>
+      </c>
+      <c r="I25">
+        <v>-14.28833</v>
+      </c>
+      <c r="J25">
+        <v>-170.67789999999999</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L25" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="68">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="C26" s="18">
+        <v>3.0129999999999999</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="E26" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T2A</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1.639</v>
+      </c>
+      <c r="G26" s="68">
+        <v>12.705</v>
+      </c>
+      <c r="H26" s="18">
+        <v>11.066000000000001</v>
+      </c>
+      <c r="I26">
+        <v>-14.29177</v>
+      </c>
+      <c r="J26">
+        <v>-170.68219999999999</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L26" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="68">
+        <v>2.4780000000000002</v>
+      </c>
+      <c r="C27" s="18">
+        <v>3.0870000000000002</v>
+      </c>
+      <c r="D27" s="18">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="E27" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T2B</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="G27" s="68">
+        <v>2.8420000000000001</v>
+      </c>
+      <c r="H27" s="18">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="I27">
+        <v>-14.29142</v>
+      </c>
+      <c r="J27">
+        <v>-170.67930000000001</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L27" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="68">
+        <v>2.5009999999999999</v>
+      </c>
+      <c r="C28" s="18">
+        <v>4.13</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1.629</v>
+      </c>
+      <c r="E28" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T2C</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="G28" s="68">
+        <v>5.23</v>
+      </c>
+      <c r="H28" s="18">
+        <v>3.5619999999999998</v>
+      </c>
+      <c r="I28">
+        <v>-14.290330000000001</v>
+      </c>
+      <c r="J28">
+        <v>-170.67670000000001</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L28" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="68">
+        <v>2.4870000000000001</v>
+      </c>
+      <c r="C29" s="18">
+        <v>3.8069999999999999</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1.32</v>
+      </c>
+      <c r="E29" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T3A</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1.627</v>
+      </c>
+      <c r="G29" s="68">
+        <v>3.133</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1.506</v>
+      </c>
+      <c r="I29">
+        <v>-14.292730000000001</v>
+      </c>
+      <c r="J29">
+        <v>-170.67939999999999</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L29" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="68">
+        <v>2.484</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2.6240000000000001</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E30" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T3B</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1.667</v>
+      </c>
+      <c r="G30" s="68">
+        <v>4.3579999999999997</v>
+      </c>
+      <c r="H30" s="18">
+        <v>2.6909999999999998</v>
+      </c>
+      <c r="I30">
+        <v>-14.293839999999999</v>
+      </c>
+      <c r="J30">
+        <v>-170.6773</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L30" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="68">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C31" s="18">
+        <v>2.84</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0.37</v>
+      </c>
+      <c r="E31" s="67" t="str">
+        <f t="shared" si="1"/>
+        <v>T3C</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="G31" s="68">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0.128</v>
+      </c>
+      <c r="I31">
+        <v>-14.293369999999999</v>
+      </c>
+      <c r="J31">
+        <v>-170.6754</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L31" s="14">
+        <f>Mar_2014!$I$3</f>
+        <v>2.0268299163899908E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -2226,1857 +5888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
-  <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="8" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="8.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="5">
-        <v>42041</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2">
-        <f>B3-B2</f>
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5">
-        <v>42074</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="F7" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-    </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="67" t="str">
-        <f>A9</f>
-        <v>P1A</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9">
-        <v>-14.290179999999999</v>
-      </c>
-      <c r="J9">
-        <v>-170.6814</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ref="K9:K17" si="0">$B$3-$B$2</f>
-        <v>33</v>
-      </c>
-      <c r="L9" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="18">
-        <v>110.10599999999999</v>
-      </c>
-      <c r="C10" s="18">
-        <v>116.49</v>
-      </c>
-      <c r="D10" s="18">
-        <v>6.3840000000000003</v>
-      </c>
-      <c r="E10" s="67" t="str">
-        <f t="shared" ref="E10:E27" si="1">A10</f>
-        <v>P1B</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1.667</v>
-      </c>
-      <c r="G10" s="68">
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="I10">
-        <v>-14.28941</v>
-      </c>
-      <c r="J10">
-        <v>-170.67959999999999</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="L10" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="18">
-        <v>112.16200000000001</v>
-      </c>
-      <c r="C11" s="18">
-        <v>113.012</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0.85</v>
-      </c>
-      <c r="E11" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P1C</v>
-      </c>
-      <c r="F11" s="18">
-        <v>1.738</v>
-      </c>
-      <c r="G11" s="68">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H11" s="18">
-        <v>2.6619999999999999</v>
-      </c>
-      <c r="I11">
-        <v>-14.28833</v>
-      </c>
-      <c r="J11">
-        <v>-170.67789999999999</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="L11" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="18">
-        <v>69.935000000000002</v>
-      </c>
-      <c r="C12" s="18">
-        <v>73.394999999999996</v>
-      </c>
-      <c r="D12" s="18">
-        <v>3.46</v>
-      </c>
-      <c r="E12" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P2A</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1.615</v>
-      </c>
-      <c r="G12" s="68">
-        <v>6.3120000000000003</v>
-      </c>
-      <c r="H12" s="18">
-        <v>4.6970000000000001</v>
-      </c>
-      <c r="I12">
-        <v>-14.29177</v>
-      </c>
-      <c r="J12">
-        <v>-170.68219999999999</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="L12" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="18">
-        <v>113.377</v>
-      </c>
-      <c r="C13" s="18">
-        <v>113.389</v>
-      </c>
-      <c r="D13" s="18">
-        <v>1.2E-2</v>
-      </c>
-      <c r="E13" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P2B</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1.74</v>
-      </c>
-      <c r="G13" s="68">
-        <v>1.744</v>
-      </c>
-      <c r="H13" s="18">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I13">
-        <v>-14.29142</v>
-      </c>
-      <c r="J13">
-        <v>-170.67930000000001</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="L13" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="18">
-        <v>67.063000000000002</v>
-      </c>
-      <c r="C14" s="18">
-        <v>67.491</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="E14" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P2C</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1.768</v>
-      </c>
-      <c r="G14" s="68">
-        <v>2.7869999999999999</v>
-      </c>
-      <c r="H14" s="18">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="I14">
-        <v>-14.290330000000001</v>
-      </c>
-      <c r="J14">
-        <v>-170.67670000000001</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="L14" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="18">
-        <v>114.633</v>
-      </c>
-      <c r="C15" s="18">
-        <v>114.964</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="E15" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P3A</v>
-      </c>
-      <c r="F15" s="18">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="G15" s="68">
-        <v>1.8169999999999999</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="I15">
-        <v>-14.292730000000001</v>
-      </c>
-      <c r="J15">
-        <v>-170.67939999999999</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="L15" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="18">
-        <v>67.495000000000005</v>
-      </c>
-      <c r="C16" s="18">
-        <v>67.531999999999996</v>
-      </c>
-      <c r="D16" s="18">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E16" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P3B</v>
-      </c>
-      <c r="F16" s="18">
-        <v>1.681</v>
-      </c>
-      <c r="G16" s="68">
-        <v>1.724</v>
-      </c>
-      <c r="H16" s="18">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="I16">
-        <v>-14.293839999999999</v>
-      </c>
-      <c r="J16">
-        <v>-170.6773</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="L16" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="18">
-        <v>68.353999999999999</v>
-      </c>
-      <c r="C17" s="18">
-        <v>68.385999999999996</v>
-      </c>
-      <c r="D17" s="18">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E17" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P3C</v>
-      </c>
-      <c r="F17" s="18">
-        <v>1.6910000000000001</v>
-      </c>
-      <c r="G17" s="68">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="H17" s="18">
-        <v>1.6E-2</v>
-      </c>
-      <c r="I17">
-        <v>-14.293369999999999</v>
-      </c>
-      <c r="J17">
-        <v>-170.6754</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="L17" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T1A</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19">
-        <v>-14.290179999999999</v>
-      </c>
-      <c r="J19">
-        <v>-170.6814</v>
-      </c>
-      <c r="K19">
-        <f t="shared" ref="K19:K27" si="2">$B$3-$B$2</f>
-        <v>33</v>
-      </c>
-      <c r="L19" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="18">
-        <v>112.46299999999999</v>
-      </c>
-      <c r="C20" s="18">
-        <v>118.566</v>
-      </c>
-      <c r="D20" s="18">
-        <v>6.1029999999999998</v>
-      </c>
-      <c r="E20" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T1B</v>
-      </c>
-      <c r="F20" s="18">
-        <v>1.6779999999999999</v>
-      </c>
-      <c r="G20" s="68">
-        <v>5.32</v>
-      </c>
-      <c r="H20" s="18">
-        <v>3.6419999999999999</v>
-      </c>
-      <c r="I20">
-        <v>-14.28941</v>
-      </c>
-      <c r="J20">
-        <v>-170.67959999999999</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="L20" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="18">
-        <v>66.397000000000006</v>
-      </c>
-      <c r="C21" s="18">
-        <v>67.463999999999999</v>
-      </c>
-      <c r="D21" s="18">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="E21" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T1C</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1.7090000000000001</v>
-      </c>
-      <c r="G21" s="68">
-        <v>2.06</v>
-      </c>
-      <c r="H21" s="18">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="I21">
-        <v>-14.28833</v>
-      </c>
-      <c r="J21">
-        <v>-170.67789999999999</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="L21" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="18">
-        <v>70.290999999999997</v>
-      </c>
-      <c r="C22" s="18">
-        <v>77.766999999999996</v>
-      </c>
-      <c r="D22" s="18">
-        <v>7.476</v>
-      </c>
-      <c r="E22" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T2A</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1.6759999999999999</v>
-      </c>
-      <c r="G22" s="68">
-        <v>3.8679999999999999</v>
-      </c>
-      <c r="H22" s="18">
-        <v>2.1920000000000002</v>
-      </c>
-      <c r="I22">
-        <v>-14.29177</v>
-      </c>
-      <c r="J22">
-        <v>-170.68219999999999</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="L22" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="18">
-        <v>115.11</v>
-      </c>
-      <c r="C23" s="18">
-        <v>115.119</v>
-      </c>
-      <c r="D23" s="18">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E23" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T2B</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1.728</v>
-      </c>
-      <c r="G23" s="68">
-        <v>1.8149999999999999</v>
-      </c>
-      <c r="H23" s="18">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="I23">
-        <v>-14.29142</v>
-      </c>
-      <c r="J23">
-        <v>-170.67930000000001</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="L23" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="18">
-        <v>69.381</v>
-      </c>
-      <c r="C24" s="18">
-        <v>70.066000000000003</v>
-      </c>
-      <c r="D24" s="18">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="E24" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T2C</v>
-      </c>
-      <c r="F24" s="18">
-        <v>1.746</v>
-      </c>
-      <c r="G24" s="68">
-        <v>3.8530000000000002</v>
-      </c>
-      <c r="H24" s="18">
-        <v>2.1070000000000002</v>
-      </c>
-      <c r="I24">
-        <v>-14.290330000000001</v>
-      </c>
-      <c r="J24">
-        <v>-170.67670000000001</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="L24" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="18">
-        <v>113.40300000000001</v>
-      </c>
-      <c r="C25" s="18">
-        <v>113.651</v>
-      </c>
-      <c r="D25" s="18">
-        <v>0.248</v>
-      </c>
-      <c r="E25" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T3A</v>
-      </c>
-      <c r="F25" s="18">
-        <v>1.66</v>
-      </c>
-      <c r="G25" s="68">
-        <v>2.0219999999999998</v>
-      </c>
-      <c r="H25" s="18">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="I25">
-        <v>-14.292730000000001</v>
-      </c>
-      <c r="J25">
-        <v>-170.67939999999999</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="L25" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="18">
-        <v>113.386</v>
-      </c>
-      <c r="C26" s="18">
-        <v>113.798</v>
-      </c>
-      <c r="D26" s="18">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="E26" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T3B</v>
-      </c>
-      <c r="F26" s="18">
-        <v>1.706</v>
-      </c>
-      <c r="G26" s="68">
-        <v>2.254</v>
-      </c>
-      <c r="H26" s="18">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="I26">
-        <v>-14.293839999999999</v>
-      </c>
-      <c r="J26">
-        <v>-170.6773</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="L26" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="18">
-        <v>70.397999999999996</v>
-      </c>
-      <c r="C27" s="18">
-        <v>70.492999999999995</v>
-      </c>
-      <c r="D27" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E27" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T3C</v>
-      </c>
-      <c r="F27" s="18">
-        <v>1.6339999999999999</v>
-      </c>
-      <c r="G27" s="68">
-        <v>1.6839999999999999</v>
-      </c>
-      <c r="H27" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="I27">
-        <v>-14.293369999999999</v>
-      </c>
-      <c r="J27">
-        <v>-170.6754</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="L27" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
-  <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="11" max="11" width="9.25" customWidth="1"/>
-    <col min="12" max="12" width="8.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5">
-        <v>42074</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2">
-        <f>B3-B2</f>
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5">
-        <v>42104</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="F7" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-    </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="68">
-        <v>2.4860000000000002</v>
-      </c>
-      <c r="C9" s="18">
-        <v>4.7279999999999998</v>
-      </c>
-      <c r="D9" s="18">
-        <v>2.242</v>
-      </c>
-      <c r="E9" s="67" t="str">
-        <f>A9</f>
-        <v>P1A</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1.653</v>
-      </c>
-      <c r="G9" s="18">
-        <v>3.4660000000000002</v>
-      </c>
-      <c r="H9" s="18">
-        <v>1.8129999999999999</v>
-      </c>
-      <c r="I9">
-        <v>-14.290179999999999</v>
-      </c>
-      <c r="J9">
-        <v>-170.6814</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ref="K9:K19" si="0">$B$3-$B$2</f>
-        <v>30</v>
-      </c>
-      <c r="L9" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="68">
-        <v>2.4809999999999999</v>
-      </c>
-      <c r="C10" s="18">
-        <v>6.7910000000000004</v>
-      </c>
-      <c r="D10" s="18">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="E10" s="67" t="str">
-        <f t="shared" ref="E10:E31" si="1">A10</f>
-        <v>P1B</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1.74</v>
-      </c>
-      <c r="G10" s="18">
-        <v>2.552</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="I10">
-        <v>-14.28941</v>
-      </c>
-      <c r="J10">
-        <v>-170.67959999999999</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L10" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="68">
-        <v>2.476</v>
-      </c>
-      <c r="C11" s="18">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="D11" s="18">
-        <v>2.004</v>
-      </c>
-      <c r="E11" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P1C</v>
-      </c>
-      <c r="F11" s="18">
-        <v>1.7310000000000001</v>
-      </c>
-      <c r="G11" s="18">
-        <v>4.9089999999999998</v>
-      </c>
-      <c r="H11" s="18">
-        <v>3.1779999999999999</v>
-      </c>
-      <c r="I11">
-        <v>-14.28833</v>
-      </c>
-      <c r="J11">
-        <v>-170.67789999999999</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L11" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P2A-a</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1.6379999999999999</v>
-      </c>
-      <c r="G12" s="18">
-        <v>6.6520000000000001</v>
-      </c>
-      <c r="H12" s="18">
-        <v>5.0140000000000002</v>
-      </c>
-      <c r="I12">
-        <v>-14.29177</v>
-      </c>
-      <c r="J12">
-        <v>-170.68219999999999</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L12" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P2A-b</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1.6819999999999999</v>
-      </c>
-      <c r="G13" s="18">
-        <v>6.22</v>
-      </c>
-      <c r="H13" s="18">
-        <v>4.5380000000000003</v>
-      </c>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="68">
-        <v>2.5070000000000001</v>
-      </c>
-      <c r="C14" s="18">
-        <v>10.756</v>
-      </c>
-      <c r="D14" s="18">
-        <v>8.2490000000000006</v>
-      </c>
-      <c r="E14" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P2A</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18">
-        <f>H12+H13</f>
-        <v>9.5519999999999996</v>
-      </c>
-      <c r="I14">
-        <v>-14.29177</v>
-      </c>
-      <c r="J14">
-        <v>-170.68219999999999</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L14" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="68">
-        <v>2.5009999999999999</v>
-      </c>
-      <c r="C15" s="18">
-        <v>2.6709999999999998</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0.17</v>
-      </c>
-      <c r="E15" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P2B</v>
-      </c>
-      <c r="F15" s="18">
-        <v>1.681</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="H15" s="18">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I15">
-        <v>-14.29142</v>
-      </c>
-      <c r="J15">
-        <v>-170.67930000000001</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L15" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="68">
-        <v>2.476</v>
-      </c>
-      <c r="C16" s="18">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="D16" s="18">
-        <v>1.232</v>
-      </c>
-      <c r="E16" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P2C</v>
-      </c>
-      <c r="F16" s="18">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1.7210000000000001</v>
-      </c>
-      <c r="H16" s="18">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="I16">
-        <v>-14.290330000000001</v>
-      </c>
-      <c r="J16">
-        <v>-170.67670000000001</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L16" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="68">
-        <v>2.52</v>
-      </c>
-      <c r="C17" s="18">
-        <v>2.7759999999999998</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="E17" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P3A</v>
-      </c>
-      <c r="F17" s="18">
-        <v>1.631</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1.792</v>
-      </c>
-      <c r="H17" s="18">
-        <v>0.161</v>
-      </c>
-      <c r="I17">
-        <v>-14.292730000000001</v>
-      </c>
-      <c r="J17">
-        <v>-170.67939999999999</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L17" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="68">
-        <v>2.5259999999999998</v>
-      </c>
-      <c r="C18" s="18">
-        <v>2.5630000000000002</v>
-      </c>
-      <c r="D18" s="18">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E18" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P3B</v>
-      </c>
-      <c r="F18" s="18">
-        <v>1.653</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1.8759999999999999</v>
-      </c>
-      <c r="H18" s="18">
-        <v>0.223</v>
-      </c>
-      <c r="I18">
-        <v>-14.293839999999999</v>
-      </c>
-      <c r="J18">
-        <v>-170.6773</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L18" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="68">
-        <v>2.5230000000000001</v>
-      </c>
-      <c r="C19" s="18">
-        <v>2.54</v>
-      </c>
-      <c r="D19" s="18">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="E19" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>P3C</v>
-      </c>
-      <c r="F19" s="18">
-        <v>1.7110000000000001</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1.716</v>
-      </c>
-      <c r="H19" s="18">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I19">
-        <v>-14.293369999999999</v>
-      </c>
-      <c r="J19">
-        <v>-170.6754</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="L19" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T1A</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21">
-        <v>-14.290179999999999</v>
-      </c>
-      <c r="J21">
-        <v>-170.6814</v>
-      </c>
-      <c r="K21">
-        <f t="shared" ref="K21:K31" si="2">$B$3-$B$2</f>
-        <v>30</v>
-      </c>
-      <c r="L21" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T1B-a</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1.6779999999999999</v>
-      </c>
-      <c r="G22" s="68">
-        <v>6.3970000000000002</v>
-      </c>
-      <c r="H22" s="18">
-        <v>4.7190000000000003</v>
-      </c>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T1B-b</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1.653</v>
-      </c>
-      <c r="G23" s="16">
-        <v>4.8170000000000002</v>
-      </c>
-      <c r="H23" s="18">
-        <v>3.1640000000000001</v>
-      </c>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="18">
-        <v>2.4849999999999999</v>
-      </c>
-      <c r="C24" s="18">
-        <v>17.739999999999998</v>
-      </c>
-      <c r="D24" s="18">
-        <v>15.255000000000001</v>
-      </c>
-      <c r="E24" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T1B</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18">
-        <f>H22+H23</f>
-        <v>7.8830000000000009</v>
-      </c>
-      <c r="I24">
-        <v>-14.28941</v>
-      </c>
-      <c r="J24">
-        <v>-170.67959999999999</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L24" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="68">
-        <v>2.488</v>
-      </c>
-      <c r="C25" s="18">
-        <v>3.8149999999999999</v>
-      </c>
-      <c r="D25" s="18">
-        <v>1.327</v>
-      </c>
-      <c r="E25" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T1C</v>
-      </c>
-      <c r="F25" s="18">
-        <v>1.71</v>
-      </c>
-      <c r="G25" s="68">
-        <v>4.8410000000000002</v>
-      </c>
-      <c r="H25" s="18">
-        <v>3.1309999999999998</v>
-      </c>
-      <c r="I25">
-        <v>-14.28833</v>
-      </c>
-      <c r="J25">
-        <v>-170.67789999999999</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L25" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="68">
-        <v>2.4969999999999999</v>
-      </c>
-      <c r="C26" s="18">
-        <v>3.0129999999999999</v>
-      </c>
-      <c r="D26" s="18">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="E26" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T2A</v>
-      </c>
-      <c r="F26" s="18">
-        <v>1.639</v>
-      </c>
-      <c r="G26" s="68">
-        <v>12.705</v>
-      </c>
-      <c r="H26" s="18">
-        <v>11.066000000000001</v>
-      </c>
-      <c r="I26">
-        <v>-14.29177</v>
-      </c>
-      <c r="J26">
-        <v>-170.68219999999999</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L26" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="68">
-        <v>2.4780000000000002</v>
-      </c>
-      <c r="C27" s="18">
-        <v>3.0870000000000002</v>
-      </c>
-      <c r="D27" s="18">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="E27" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T2B</v>
-      </c>
-      <c r="F27" s="18">
-        <v>1.6779999999999999</v>
-      </c>
-      <c r="G27" s="68">
-        <v>2.8420000000000001</v>
-      </c>
-      <c r="H27" s="18">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="I27">
-        <v>-14.29142</v>
-      </c>
-      <c r="J27">
-        <v>-170.67930000000001</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L27" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="68">
-        <v>2.5009999999999999</v>
-      </c>
-      <c r="C28" s="18">
-        <v>4.13</v>
-      </c>
-      <c r="D28" s="18">
-        <v>1.629</v>
-      </c>
-      <c r="E28" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T2C</v>
-      </c>
-      <c r="F28" s="18">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="G28" s="68">
-        <v>5.23</v>
-      </c>
-      <c r="H28" s="18">
-        <v>3.5619999999999998</v>
-      </c>
-      <c r="I28">
-        <v>-14.290330000000001</v>
-      </c>
-      <c r="J28">
-        <v>-170.67670000000001</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L28" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="68">
-        <v>2.4870000000000001</v>
-      </c>
-      <c r="C29" s="18">
-        <v>3.8069999999999999</v>
-      </c>
-      <c r="D29" s="18">
-        <v>1.32</v>
-      </c>
-      <c r="E29" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T3A</v>
-      </c>
-      <c r="F29" s="18">
-        <v>1.627</v>
-      </c>
-      <c r="G29" s="68">
-        <v>3.133</v>
-      </c>
-      <c r="H29" s="18">
-        <v>1.506</v>
-      </c>
-      <c r="I29">
-        <v>-14.292730000000001</v>
-      </c>
-      <c r="J29">
-        <v>-170.67939999999999</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L29" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="68">
-        <v>2.484</v>
-      </c>
-      <c r="C30" s="18">
-        <v>2.6240000000000001</v>
-      </c>
-      <c r="D30" s="18">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E30" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T3B</v>
-      </c>
-      <c r="F30" s="18">
-        <v>1.667</v>
-      </c>
-      <c r="G30" s="68">
-        <v>4.3579999999999997</v>
-      </c>
-      <c r="H30" s="18">
-        <v>2.6909999999999998</v>
-      </c>
-      <c r="I30">
-        <v>-14.293839999999999</v>
-      </c>
-      <c r="J30">
-        <v>-170.6773</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L30" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="68">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="C31" s="18">
-        <v>2.84</v>
-      </c>
-      <c r="D31" s="18">
-        <v>0.37</v>
-      </c>
-      <c r="E31" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v>T3C</v>
-      </c>
-      <c r="F31" s="18">
-        <v>1.6830000000000001</v>
-      </c>
-      <c r="G31" s="68">
-        <v>1.8109999999999999</v>
-      </c>
-      <c r="H31" s="18">
-        <v>0.128</v>
-      </c>
-      <c r="I31">
-        <v>-14.293369999999999</v>
-      </c>
-      <c r="J31">
-        <v>-170.6754</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L31" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
@@ -4932,7 +6744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
@@ -5792,7 +7604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
@@ -6820,7 +8632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
@@ -7904,7 +9716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
@@ -8826,7 +10638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
@@ -9734,7 +11546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
@@ -10612,883 +12424,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="8" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="8.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="5">
-        <v>42009</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2">
-        <f>B3-B2</f>
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5">
-        <v>42041</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="F7" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-    </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="18">
-        <v>100.639</v>
-      </c>
-      <c r="C9" s="18">
-        <v>108.393</v>
-      </c>
-      <c r="D9" s="18">
-        <v>7.7539999999999996</v>
-      </c>
-      <c r="E9" s="13" t="str">
-        <f>A9</f>
-        <v>P1A</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1.752</v>
-      </c>
-      <c r="G9" s="18">
-        <v>3.4660000000000002</v>
-      </c>
-      <c r="H9" s="18">
-        <v>1.714</v>
-      </c>
-      <c r="I9">
-        <v>-14.290179999999999</v>
-      </c>
-      <c r="J9">
-        <v>-170.6814</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ref="K9:K17" si="0">$B$3-$B$2</f>
-        <v>32</v>
-      </c>
-      <c r="L9" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="18">
-        <v>109.652</v>
-      </c>
-      <c r="C10" s="18">
-        <v>110.869</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1.2170000000000001</v>
-      </c>
-      <c r="E10" s="13" t="str">
-        <f t="shared" ref="E10:E27" si="1">A10</f>
-        <v>P1B</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1.67</v>
-      </c>
-      <c r="G10" s="18">
-        <v>2.552</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="I10">
-        <v>-14.28941</v>
-      </c>
-      <c r="J10">
-        <v>-170.67959999999999</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L10" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="18">
-        <v>111.696</v>
-      </c>
-      <c r="C11" s="18">
-        <v>113.31699999999999</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1.621</v>
-      </c>
-      <c r="E11" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>P1C</v>
-      </c>
-      <c r="F11" s="18">
-        <v>1.7350000000000001</v>
-      </c>
-      <c r="G11" s="18">
-        <v>4.9089999999999998</v>
-      </c>
-      <c r="H11" s="18">
-        <v>3.1739999999999999</v>
-      </c>
-      <c r="I11">
-        <v>-14.28833</v>
-      </c>
-      <c r="J11">
-        <v>-170.67789999999999</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L11" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="18">
-        <v>106.29600000000001</v>
-      </c>
-      <c r="C12" s="18">
-        <v>111.824</v>
-      </c>
-      <c r="D12" s="18">
-        <v>5.5279999999999996</v>
-      </c>
-      <c r="E12" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>P2A</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1.6559999999999999</v>
-      </c>
-      <c r="G12" s="18">
-        <v>6.6520000000000001</v>
-      </c>
-      <c r="H12" s="18">
-        <v>4.9960000000000004</v>
-      </c>
-      <c r="I12">
-        <v>-14.29177</v>
-      </c>
-      <c r="J12">
-        <v>-170.68219999999999</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L12" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="18">
-        <v>112.938</v>
-      </c>
-      <c r="C13" s="18">
-        <v>112.934</v>
-      </c>
-      <c r="D13" s="18">
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="E13" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>P2B</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1.7370000000000001</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="H13" s="18">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="I13">
-        <v>-14.29142</v>
-      </c>
-      <c r="J13">
-        <v>-170.67930000000001</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L13" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="18">
-        <v>66.795000000000002</v>
-      </c>
-      <c r="C14" s="18">
-        <v>66.825000000000003</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="E14" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>P2C</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1.712</v>
-      </c>
-      <c r="G14" s="18">
-        <v>1.7210000000000001</v>
-      </c>
-      <c r="H14" s="18">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="I14">
-        <v>-14.290330000000001</v>
-      </c>
-      <c r="J14">
-        <v>-170.67670000000001</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L14" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="18">
-        <v>114.15600000000001</v>
-      </c>
-      <c r="C15" s="18">
-        <v>114.28100000000001</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0.125</v>
-      </c>
-      <c r="E15" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>P3A</v>
-      </c>
-      <c r="F15" s="18">
-        <v>1.716</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1.792</v>
-      </c>
-      <c r="H15" s="18">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="I15">
-        <v>-14.292730000000001</v>
-      </c>
-      <c r="J15">
-        <v>-170.67939999999999</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L15" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="18">
-        <v>67.224999999999994</v>
-      </c>
-      <c r="C16" s="18">
-        <v>67.228999999999999</v>
-      </c>
-      <c r="D16" s="18">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E16" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>P3B</v>
-      </c>
-      <c r="F16" s="18">
-        <v>1.758</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1.8759999999999999</v>
-      </c>
-      <c r="H16" s="18">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="I16">
-        <v>-14.293839999999999</v>
-      </c>
-      <c r="J16">
-        <v>-170.6773</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L16" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="18">
-        <v>68.069000000000003</v>
-      </c>
-      <c r="C17" s="18">
-        <v>68.078999999999994</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="E17" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>P3C</v>
-      </c>
-      <c r="F17" s="18">
-        <v>1.7310000000000001</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1.716</v>
-      </c>
-      <c r="H17" s="18">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="I17">
-        <v>-14.293369999999999</v>
-      </c>
-      <c r="J17">
-        <v>-170.6754</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="L17" s="14">
-        <f>Mar_2014!$I$2</f>
-        <v>1.8241469247509915E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="18">
-        <v>67.872</v>
-      </c>
-      <c r="C19" s="18">
-        <v>74.834000000000003</v>
-      </c>
-      <c r="D19" s="18">
-        <v>6.9619999999999997</v>
-      </c>
-      <c r="E19" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T1A</v>
-      </c>
-      <c r="F19" s="18">
-        <v>1.6930000000000001</v>
-      </c>
-      <c r="G19" s="18">
-        <v>2.9359999999999999</v>
-      </c>
-      <c r="H19" s="18">
-        <v>1.2430000000000001</v>
-      </c>
-      <c r="I19">
-        <v>-14.290179999999999</v>
-      </c>
-      <c r="J19">
-        <v>-170.6814</v>
-      </c>
-      <c r="K19">
-        <f t="shared" ref="K19:K27" si="2">$B$3-$B$2</f>
-        <v>32</v>
-      </c>
-      <c r="L19" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="18">
-        <v>112.03</v>
-      </c>
-      <c r="C20" s="18">
-        <v>120.18300000000001</v>
-      </c>
-      <c r="D20" s="18">
-        <v>8.1530000000000005</v>
-      </c>
-      <c r="E20" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T1B</v>
-      </c>
-      <c r="F20" s="18">
-        <v>1.6819999999999999</v>
-      </c>
-      <c r="G20" s="18">
-        <v>4.3179999999999996</v>
-      </c>
-      <c r="H20" s="18">
-        <v>2.6360000000000001</v>
-      </c>
-      <c r="I20">
-        <v>-14.28941</v>
-      </c>
-      <c r="J20">
-        <v>-170.67959999999999</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="L20" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="18">
-        <v>66.147000000000006</v>
-      </c>
-      <c r="C21" s="18">
-        <v>67.400999999999996</v>
-      </c>
-      <c r="D21" s="18">
-        <v>1.254</v>
-      </c>
-      <c r="E21" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T1C</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1.7529999999999999</v>
-      </c>
-      <c r="G21" s="18">
-        <v>3.4740000000000002</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1.7210000000000001</v>
-      </c>
-      <c r="I21">
-        <v>-14.28833</v>
-      </c>
-      <c r="J21">
-        <v>-170.67789999999999</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="L21" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="18">
-        <v>70.015000000000001</v>
-      </c>
-      <c r="C22" s="18">
-        <v>76.072999999999993</v>
-      </c>
-      <c r="D22" s="18">
-        <v>6.0579999999999998</v>
-      </c>
-      <c r="E22" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T2A</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1.7230000000000001</v>
-      </c>
-      <c r="G22" s="18">
-        <v>7.093</v>
-      </c>
-      <c r="H22" s="18">
-        <v>5.37</v>
-      </c>
-      <c r="I22">
-        <v>-14.29177</v>
-      </c>
-      <c r="J22">
-        <v>-170.68219999999999</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="L22" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="18">
-        <v>114.637</v>
-      </c>
-      <c r="C23" s="18">
-        <v>114.63800000000001</v>
-      </c>
-      <c r="D23" s="18">
-        <v>1E-3</v>
-      </c>
-      <c r="E23" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T2B</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1.7669999999999999</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1.75</v>
-      </c>
-      <c r="H23" s="18">
-        <v>-1.7000000000000001E-2</v>
-      </c>
-      <c r="I23">
-        <v>-14.29142</v>
-      </c>
-      <c r="J23">
-        <v>-170.67930000000001</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="L23" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="18">
-        <v>69.108999999999995</v>
-      </c>
-      <c r="C24" s="18">
-        <v>71.159000000000006</v>
-      </c>
-      <c r="D24" s="18">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="E24" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T2C</v>
-      </c>
-      <c r="F24" s="18">
-        <v>1.7809999999999999</v>
-      </c>
-      <c r="G24" s="18">
-        <v>4.3550000000000004</v>
-      </c>
-      <c r="H24" s="18">
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="I24">
-        <v>-14.290330000000001</v>
-      </c>
-      <c r="J24">
-        <v>-170.67670000000001</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="L24" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="18">
-        <v>112.93600000000001</v>
-      </c>
-      <c r="C25" s="18">
-        <v>113.355</v>
-      </c>
-      <c r="D25" s="18">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="E25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T3A</v>
-      </c>
-      <c r="F25" s="18">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="G25" s="18">
-        <v>2.3210000000000002</v>
-      </c>
-      <c r="H25" s="18">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="I25">
-        <v>-14.292730000000001</v>
-      </c>
-      <c r="J25">
-        <v>-170.67939999999999</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="L25" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="18">
-        <v>112.925</v>
-      </c>
-      <c r="C26" s="18">
-        <v>113.904</v>
-      </c>
-      <c r="D26" s="18">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="E26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T3B</v>
-      </c>
-      <c r="F26" s="18">
-        <v>1.748</v>
-      </c>
-      <c r="G26" s="18">
-        <v>2.5979999999999999</v>
-      </c>
-      <c r="H26" s="18">
-        <v>0.85</v>
-      </c>
-      <c r="I26">
-        <v>-14.293839999999999</v>
-      </c>
-      <c r="J26">
-        <v>-170.6773</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="L26" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="18">
-        <v>70.111999999999995</v>
-      </c>
-      <c r="C27" s="18">
-        <v>70.234999999999999</v>
-      </c>
-      <c r="D27" s="18">
-        <v>0.123</v>
-      </c>
-      <c r="E27" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>T3C</v>
-      </c>
-      <c r="F27" s="18">
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1.7430000000000001</v>
-      </c>
-      <c r="H27" s="18">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="I27">
-        <v>-14.293369999999999</v>
-      </c>
-      <c r="J27">
-        <v>-170.6754</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="L27" s="14">
-        <f>Mar_2014!$I$3</f>
-        <v>2.0268299163899908E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Data/CRCP Sediment Data Bulk Weight and Composition.xlsx
+++ b/Data/CRCP Sediment Data Bulk Weight and Composition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="654"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="654" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test_2015" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="80">
   <si>
     <t>Pod(P)/Tube(T)</t>
   </si>
@@ -268,6 +268,9 @@
   <si>
     <t>T1B-b</t>
   </si>
+  <si>
+    <t>** Lab results for T1B on this month show zero sediment but that has to be an error</t>
+  </si>
 </sst>
 </file>
 
@@ -278,9 +281,16 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -482,35 +492,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -552,85 +562,126 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -998,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -1080,7 +1131,7 @@
       <c r="G7" s="69"/>
       <c r="H7" s="69"/>
     </row>
-    <row r="8" spans="1:12" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
@@ -6736,7 +6787,7 @@
     <mergeCell ref="F7:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D9 H1:H9 H11:H16 D11:D16 D18:D1048576 H18:H1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7596,7 +7647,7 @@
     <mergeCell ref="F7:H7"/>
   </mergeCells>
   <conditionalFormatting sqref="D1 H1:H1048576 D3:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7606,10 +7657,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8036,7 +8087,7 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>38</v>
       </c>
@@ -8075,7 +8126,7 @@
         <v>1.8241469247509915E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
@@ -8085,7 +8136,7 @@
       <c r="G18" s="48"/>
       <c r="H18" s="48"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>13</v>
       </c>
@@ -8125,30 +8176,28 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="42">
-        <v>66.369600000000005</v>
-      </c>
-      <c r="C20" s="42">
-        <v>66.436099999999996</v>
-      </c>
-      <c r="D20" s="43">
-        <f t="shared" si="3"/>
-        <v>6.6499999999990678E-2</v>
+      <c r="B20" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>24</v>
       </c>
       <c r="E20" s="44"/>
-      <c r="F20" s="45">
-        <v>1.7941</v>
-      </c>
-      <c r="G20" s="42">
-        <v>1.7761</v>
-      </c>
-      <c r="H20" s="42">
-        <f t="shared" si="4"/>
-        <v>-1.8000000000000016E-2</v>
+      <c r="F20" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>24</v>
       </c>
       <c r="I20" s="34">
         <v>-14.28941</v>
@@ -8164,8 +8213,11 @@
         <f>Mar_2014!$I$3</f>
         <v>2.0268299163899908E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>16</v>
       </c>
@@ -8205,7 +8257,7 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>44</v>
       </c>
@@ -8232,7 +8284,7 @@
       </c>
       <c r="L22" s="46"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>45</v>
       </c>
@@ -8259,7 +8311,7 @@
       </c>
       <c r="L23" s="46"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>46</v>
       </c>
@@ -8286,7 +8338,7 @@
       </c>
       <c r="L24" s="46"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>47</v>
       </c>
@@ -8313,7 +8365,7 @@
       </c>
       <c r="L25" s="46"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>48</v>
       </c>
@@ -8340,7 +8392,7 @@
       </c>
       <c r="L26" s="46"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>10</v>
       </c>
@@ -8372,7 +8424,7 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>15</v>
       </c>
@@ -8412,7 +8464,7 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
         <v>8</v>
       </c>
@@ -8452,7 +8504,7 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>11</v>
       </c>
@@ -8492,7 +8544,7 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>7</v>
       </c>
@@ -8532,7 +8584,7 @@
         <v>2.0268299163899908E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
         <v>12</v>
       </c>
@@ -8622,8 +8674,18 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F7:H7"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1 H1:H15 D3:D1048576 H18:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D1 H1:H15 D3:D19 H18:H19 D21:D1048576 H21:H1048576">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
